--- a/thesis/main_new_formulation/concept_new_storage.xlsx
+++ b/thesis/main_new_formulation/concept_new_storage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AED1F7A-0173-9444-A1A4-3BA97617AFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C9EA9-37B3-0E4F-9BE3-5645AB31248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1820" yWindow="-17500" windowWidth="32000" windowHeight="17500" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="10" r:id="rId1"/>
@@ -907,8 +907,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,14 +1245,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097AE1A-0E18-DF48-8976-354601D23DDF}">
   <dimension ref="A1:CP74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BQ22" sqref="BQ22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="31"/>
+    <col min="40" max="40" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.2">
@@ -1719,7 +1720,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="6" t="s">
         <v>42</v>
       </c>
@@ -1860,7 +1861,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="60" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="8"/>
@@ -2085,46 +2086,46 @@
         <v>56</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1</v>
-      </c>
-      <c r="L10" s="12">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12">
-        <v>1</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>0</v>
-      </c>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
-      <c r="T10" s="12">
-        <v>0</v>
-      </c>
-      <c r="U10" s="12">
-        <v>0</v>
-      </c>
-      <c r="V10" s="12">
-        <v>0</v>
-      </c>
-      <c r="W10" s="12">
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
         <v>0</v>
       </c>
       <c r="X10" s="13"/>
@@ -2311,46 +2312,46 @@
         <v>56</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>1</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>1</v>
-      </c>
-      <c r="R11" s="12">
-        <v>0</v>
-      </c>
-      <c r="S11" s="12">
-        <v>0</v>
-      </c>
-      <c r="T11" s="12">
-        <v>0</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <v>0</v>
-      </c>
-      <c r="W11" s="12">
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>1</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
         <v>0</v>
       </c>
       <c r="X11" s="13"/>
@@ -2534,46 +2535,46 @@
         <v>56</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
-        <v>1</v>
-      </c>
-      <c r="P12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <v>0</v>
-      </c>
-      <c r="T12" s="12">
-        <v>1</v>
-      </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="12">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>1</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
         <v>0</v>
       </c>
       <c r="X12" s="13"/>
@@ -2742,46 +2743,46 @@
         <v>56</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>0</v>
-      </c>
-      <c r="R13" s="12">
-        <v>1</v>
-      </c>
-      <c r="S13" s="12">
-        <v>1</v>
-      </c>
-      <c r="T13" s="12">
-        <v>0</v>
-      </c>
-      <c r="U13" s="26">
-        <v>0</v>
-      </c>
-      <c r="V13" s="12">
-        <v>0</v>
-      </c>
-      <c r="W13" s="12">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>1</v>
+      </c>
+      <c r="S13" s="14">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="61">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
         <v>0</v>
       </c>
       <c r="X13" s="13"/>
@@ -2950,46 +2951,46 @@
         <v>56</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12">
-        <v>0</v>
-      </c>
-      <c r="P14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>0</v>
-      </c>
-      <c r="R14" s="12">
-        <v>0</v>
-      </c>
-      <c r="S14" s="12">
-        <v>0</v>
-      </c>
-      <c r="T14" s="12">
-        <v>0</v>
-      </c>
-      <c r="U14" s="12">
-        <v>1</v>
-      </c>
-      <c r="V14" s="12">
-        <v>1</v>
-      </c>
-      <c r="W14" s="12">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>1</v>
+      </c>
+      <c r="V14" s="14">
+        <v>1</v>
+      </c>
+      <c r="W14" s="14">
         <v>0</v>
       </c>
       <c r="X14" s="13"/>
@@ -3158,46 +3159,46 @@
         <v>56</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12">
-        <v>0</v>
-      </c>
-      <c r="P15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>0</v>
-      </c>
-      <c r="R15" s="12">
-        <v>0</v>
-      </c>
-      <c r="S15" s="12">
-        <v>0</v>
-      </c>
-      <c r="T15" s="12">
-        <v>0</v>
-      </c>
-      <c r="U15" s="12">
-        <v>0</v>
-      </c>
-      <c r="V15" s="12">
-        <v>0</v>
-      </c>
-      <c r="W15" s="12">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
         <v>1</v>
       </c>
       <c r="X15" s="13"/>
@@ -3473,46 +3474,46 @@
         <v>56</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="14">
-        <v>1</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0</v>
-      </c>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0</v>
-      </c>
-      <c r="R17" s="14">
-        <v>0</v>
-      </c>
-      <c r="S17" s="14">
-        <v>0</v>
-      </c>
-      <c r="T17" s="14">
-        <v>0</v>
-      </c>
-      <c r="U17" s="14">
-        <v>0</v>
-      </c>
-      <c r="V17" s="14">
-        <v>0</v>
-      </c>
-      <c r="W17" s="14">
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
         <v>0</v>
       </c>
       <c r="X17" s="13"/>
@@ -3632,46 +3633,46 @@
         <v>56</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="14">
-        <v>0</v>
-      </c>
-      <c r="K18" s="14">
-        <v>1</v>
-      </c>
-      <c r="L18" s="14">
-        <v>0</v>
-      </c>
-      <c r="M18" s="14">
-        <v>0</v>
-      </c>
-      <c r="N18" s="14">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>0</v>
-      </c>
-      <c r="R18" s="14">
-        <v>0</v>
-      </c>
-      <c r="S18" s="14">
-        <v>0</v>
-      </c>
-      <c r="T18" s="14">
-        <v>0</v>
-      </c>
-      <c r="U18" s="14">
-        <v>0</v>
-      </c>
-      <c r="V18" s="14">
-        <v>0</v>
-      </c>
-      <c r="W18" s="14">
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <v>0</v>
+      </c>
+      <c r="S18" s="12">
+        <v>0</v>
+      </c>
+      <c r="T18" s="12">
+        <v>0</v>
+      </c>
+      <c r="U18" s="12">
+        <v>0</v>
+      </c>
+      <c r="V18" s="12">
+        <v>0</v>
+      </c>
+      <c r="W18" s="12">
         <v>0</v>
       </c>
       <c r="X18" s="13"/>
@@ -3792,46 +3793,46 @@
         <v>56</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="14">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
         <v>-1</v>
       </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0</v>
-      </c>
-      <c r="P19" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0</v>
-      </c>
-      <c r="R19" s="14">
-        <v>0</v>
-      </c>
-      <c r="S19" s="14">
-        <v>0</v>
-      </c>
-      <c r="T19" s="14">
-        <v>0</v>
-      </c>
-      <c r="U19" s="14">
-        <v>0</v>
-      </c>
-      <c r="V19" s="14">
-        <v>0</v>
-      </c>
-      <c r="W19" s="14">
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
         <v>0</v>
       </c>
       <c r="X19" s="13"/>
@@ -3943,46 +3944,46 @@
         <v>56</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="14">
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14">
-        <v>0</v>
-      </c>
-      <c r="M20" s="14">
-        <v>1</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
-      <c r="R20" s="14">
-        <v>0</v>
-      </c>
-      <c r="S20" s="14">
-        <v>0</v>
-      </c>
-      <c r="T20" s="14">
-        <v>0</v>
-      </c>
-      <c r="U20" s="14">
-        <v>0</v>
-      </c>
-      <c r="V20" s="14">
-        <v>0</v>
-      </c>
-      <c r="W20" s="14">
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>0</v>
+      </c>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="12">
+        <v>0</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
         <v>0</v>
       </c>
       <c r="X20" s="13"/>
@@ -4094,46 +4095,46 @@
         <v>56</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="14">
-        <v>0</v>
-      </c>
-      <c r="K21" s="14">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14">
-        <v>0</v>
-      </c>
-      <c r="N21" s="14">
-        <v>1</v>
-      </c>
-      <c r="O21" s="14">
-        <v>0</v>
-      </c>
-      <c r="P21" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>0</v>
-      </c>
-      <c r="R21" s="14">
-        <v>0</v>
-      </c>
-      <c r="S21" s="14">
-        <v>0</v>
-      </c>
-      <c r="T21" s="14">
-        <v>0</v>
-      </c>
-      <c r="U21" s="14">
-        <v>0</v>
-      </c>
-      <c r="V21" s="14">
-        <v>0</v>
-      </c>
-      <c r="W21" s="14">
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
+      <c r="S21" s="12">
+        <v>0</v>
+      </c>
+      <c r="T21" s="12">
+        <v>0</v>
+      </c>
+      <c r="U21" s="12">
+        <v>0</v>
+      </c>
+      <c r="V21" s="12">
+        <v>0</v>
+      </c>
+      <c r="W21" s="12">
         <v>0</v>
       </c>
       <c r="X21" s="13"/>
@@ -4238,46 +4239,46 @@
         <v>56</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14">
-        <v>0</v>
-      </c>
-      <c r="M22" s="14">
-        <v>0</v>
-      </c>
-      <c r="N22" s="14">
-        <v>1</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>0</v>
-      </c>
-      <c r="R22" s="14">
-        <v>0</v>
-      </c>
-      <c r="S22" s="14">
-        <v>0</v>
-      </c>
-      <c r="T22" s="14">
-        <v>0</v>
-      </c>
-      <c r="U22" s="14">
-        <v>0</v>
-      </c>
-      <c r="V22" s="14">
-        <v>0</v>
-      </c>
-      <c r="W22" s="14">
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>1</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
+      <c r="S22" s="12">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12">
+        <v>0</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
         <v>0</v>
       </c>
       <c r="X22" s="13"/>
@@ -4380,46 +4381,46 @@
         <v>56</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="14">
-        <v>0</v>
-      </c>
-      <c r="K23" s="14">
-        <v>0</v>
-      </c>
-      <c r="L23" s="14">
-        <v>0</v>
-      </c>
-      <c r="M23" s="14">
-        <v>0</v>
-      </c>
-      <c r="N23" s="14">
-        <v>0</v>
-      </c>
-      <c r="O23" s="14">
-        <v>1</v>
-      </c>
-      <c r="P23" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0</v>
-      </c>
-      <c r="T23" s="14">
-        <v>0</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14">
-        <v>0</v>
-      </c>
-      <c r="W23" s="14">
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>0</v>
+      </c>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0</v>
+      </c>
+      <c r="T23" s="12">
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0</v>
+      </c>
+      <c r="W23" s="12">
         <v>0</v>
       </c>
       <c r="X23" s="13"/>
@@ -4530,46 +4531,46 @@
         <v>56</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="14">
-        <v>0</v>
-      </c>
-      <c r="K24" s="14">
-        <v>0</v>
-      </c>
-      <c r="L24" s="14">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14">
-        <v>0</v>
-      </c>
-      <c r="N24" s="14">
-        <v>0</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0</v>
-      </c>
-      <c r="P24" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
-      <c r="R24" s="14">
-        <v>0</v>
-      </c>
-      <c r="S24" s="14">
-        <v>0</v>
-      </c>
-      <c r="T24" s="14">
-        <v>0</v>
-      </c>
-      <c r="U24" s="14">
-        <v>0</v>
-      </c>
-      <c r="V24" s="14">
-        <v>0</v>
-      </c>
-      <c r="W24" s="14">
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0</v>
+      </c>
+      <c r="R24" s="12">
+        <v>0</v>
+      </c>
+      <c r="S24" s="12">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12">
+        <v>0</v>
+      </c>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
         <v>0</v>
       </c>
       <c r="X24" s="13"/>
@@ -4680,46 +4681,46 @@
         <v>56</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="14">
-        <v>0</v>
-      </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14">
-        <v>0</v>
-      </c>
-      <c r="N25" s="14">
-        <v>0</v>
-      </c>
-      <c r="O25" s="14">
-        <v>0</v>
-      </c>
-      <c r="P25" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>1</v>
-      </c>
-      <c r="R25" s="14">
-        <v>0</v>
-      </c>
-      <c r="S25" s="14">
-        <v>0</v>
-      </c>
-      <c r="T25" s="14">
-        <v>0</v>
-      </c>
-      <c r="U25" s="14">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14">
-        <v>0</v>
-      </c>
-      <c r="W25" s="14">
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>1</v>
+      </c>
+      <c r="R25" s="12">
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <v>0</v>
+      </c>
+      <c r="T25" s="12">
+        <v>0</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
         <v>0</v>
       </c>
       <c r="X25" s="13"/>
@@ -4830,46 +4831,46 @@
         <v>56</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="14">
-        <v>0</v>
-      </c>
-      <c r="K26" s="14">
-        <v>0</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14">
-        <v>0</v>
-      </c>
-      <c r="N26" s="14">
-        <v>0</v>
-      </c>
-      <c r="O26" s="14">
-        <v>0</v>
-      </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
-      <c r="R26" s="14">
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
-        <v>0</v>
-      </c>
-      <c r="T26" s="14">
-        <v>0</v>
-      </c>
-      <c r="U26" s="14">
-        <v>0</v>
-      </c>
-      <c r="V26" s="14">
-        <v>0</v>
-      </c>
-      <c r="W26" s="14">
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>0</v>
+      </c>
+      <c r="R26" s="12">
+        <v>0</v>
+      </c>
+      <c r="S26" s="12">
+        <v>0</v>
+      </c>
+      <c r="T26" s="12">
+        <v>0</v>
+      </c>
+      <c r="U26" s="12">
+        <v>0</v>
+      </c>
+      <c r="V26" s="12">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
         <v>0</v>
       </c>
       <c r="X26" s="13"/>
@@ -4983,46 +4984,46 @@
         <v>56</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="14">
-        <v>0</v>
-      </c>
-      <c r="K27" s="14">
-        <v>0</v>
-      </c>
-      <c r="L27" s="14">
-        <v>0</v>
-      </c>
-      <c r="M27" s="14">
-        <v>0</v>
-      </c>
-      <c r="N27" s="14">
-        <v>0</v>
-      </c>
-      <c r="O27" s="14">
-        <v>0</v>
-      </c>
-      <c r="P27" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>0</v>
-      </c>
-      <c r="R27" s="14">
-        <v>1</v>
-      </c>
-      <c r="S27" s="14">
-        <v>0</v>
-      </c>
-      <c r="T27" s="14">
-        <v>0</v>
-      </c>
-      <c r="U27" s="14">
-        <v>0</v>
-      </c>
-      <c r="V27" s="14">
-        <v>0</v>
-      </c>
-      <c r="W27" s="14">
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+      <c r="P27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>0</v>
+      </c>
+      <c r="R27" s="12">
+        <v>1</v>
+      </c>
+      <c r="S27" s="12">
+        <v>0</v>
+      </c>
+      <c r="T27" s="12">
+        <v>0</v>
+      </c>
+      <c r="U27" s="12">
+        <v>0</v>
+      </c>
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
         <v>0</v>
       </c>
       <c r="X27" s="13"/>
@@ -5155,46 +5156,46 @@
         <v>56</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="14">
-        <v>0</v>
-      </c>
-      <c r="K28" s="14">
-        <v>0</v>
-      </c>
-      <c r="L28" s="14">
-        <v>0</v>
-      </c>
-      <c r="M28" s="14">
-        <v>0</v>
-      </c>
-      <c r="N28" s="14">
-        <v>0</v>
-      </c>
-      <c r="O28" s="14">
-        <v>0</v>
-      </c>
-      <c r="P28" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>0</v>
-      </c>
-      <c r="R28" s="14">
-        <v>0</v>
-      </c>
-      <c r="S28" s="14">
-        <v>1</v>
-      </c>
-      <c r="T28" s="14">
-        <v>0</v>
-      </c>
-      <c r="U28" s="14">
-        <v>0</v>
-      </c>
-      <c r="V28" s="14">
-        <v>0</v>
-      </c>
-      <c r="W28" s="14">
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>0</v>
+      </c>
+      <c r="R28" s="12">
+        <v>0</v>
+      </c>
+      <c r="S28" s="12">
+        <v>1</v>
+      </c>
+      <c r="T28" s="12">
+        <v>0</v>
+      </c>
+      <c r="U28" s="12">
+        <v>0</v>
+      </c>
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
         <v>0</v>
       </c>
       <c r="X28" s="13"/>
@@ -5314,46 +5315,46 @@
         <v>56</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="14">
-        <v>0</v>
-      </c>
-      <c r="K29" s="14">
-        <v>0</v>
-      </c>
-      <c r="L29" s="14">
-        <v>0</v>
-      </c>
-      <c r="M29" s="14">
-        <v>0</v>
-      </c>
-      <c r="N29" s="14">
-        <v>0</v>
-      </c>
-      <c r="O29" s="14">
-        <v>0</v>
-      </c>
-      <c r="P29" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>0</v>
-      </c>
-      <c r="R29" s="14">
-        <v>0</v>
-      </c>
-      <c r="S29" s="14">
-        <v>0</v>
-      </c>
-      <c r="T29" s="14">
-        <v>1</v>
-      </c>
-      <c r="U29" s="14">
-        <v>0</v>
-      </c>
-      <c r="V29" s="14">
-        <v>0</v>
-      </c>
-      <c r="W29" s="14">
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>0</v>
+      </c>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
+      <c r="S29" s="12">
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <v>1</v>
+      </c>
+      <c r="U29" s="12">
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
+        <v>0</v>
+      </c>
+      <c r="W29" s="12">
         <v>0</v>
       </c>
       <c r="X29" s="13"/>
@@ -5447,46 +5448,46 @@
         <v>56</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="14">
-        <v>0</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0</v>
-      </c>
-      <c r="M30" s="14">
-        <v>0</v>
-      </c>
-      <c r="N30" s="14">
-        <v>0</v>
-      </c>
-      <c r="O30" s="14">
-        <v>0</v>
-      </c>
-      <c r="P30" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>0</v>
-      </c>
-      <c r="R30" s="14">
-        <v>0</v>
-      </c>
-      <c r="S30" s="14">
-        <v>0</v>
-      </c>
-      <c r="T30" s="14">
-        <v>0</v>
-      </c>
-      <c r="U30" s="14">
-        <v>1</v>
-      </c>
-      <c r="V30" s="14">
-        <v>0</v>
-      </c>
-      <c r="W30" s="14">
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12">
+        <v>0</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>0</v>
+      </c>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <v>0</v>
+      </c>
+      <c r="U30" s="12">
+        <v>1</v>
+      </c>
+      <c r="V30" s="12">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
         <v>0</v>
       </c>
       <c r="X30" s="13"/>
@@ -5594,46 +5595,46 @@
         <v>56</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="14">
-        <v>0</v>
-      </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-      <c r="L31" s="14">
-        <v>0</v>
-      </c>
-      <c r="M31" s="14">
-        <v>0</v>
-      </c>
-      <c r="N31" s="14">
-        <v>0</v>
-      </c>
-      <c r="O31" s="14">
-        <v>0</v>
-      </c>
-      <c r="P31" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>0</v>
-      </c>
-      <c r="R31" s="14">
-        <v>0</v>
-      </c>
-      <c r="S31" s="14">
-        <v>0</v>
-      </c>
-      <c r="T31" s="14">
-        <v>0</v>
-      </c>
-      <c r="U31" s="14">
-        <v>0</v>
-      </c>
-      <c r="V31" s="14">
-        <v>1</v>
-      </c>
-      <c r="W31" s="14">
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <v>0</v>
+      </c>
+      <c r="U31" s="12">
+        <v>0</v>
+      </c>
+      <c r="V31" s="12">
+        <v>1</v>
+      </c>
+      <c r="W31" s="12">
         <v>0</v>
       </c>
       <c r="X31" s="13"/>
@@ -5756,46 +5757,46 @@
         <v>56</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="14">
-        <v>0</v>
-      </c>
-      <c r="K32" s="14">
-        <v>0</v>
-      </c>
-      <c r="L32" s="14">
-        <v>0</v>
-      </c>
-      <c r="M32" s="14">
-        <v>0</v>
-      </c>
-      <c r="N32" s="14">
-        <v>0</v>
-      </c>
-      <c r="O32" s="14">
-        <v>0</v>
-      </c>
-      <c r="P32" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>0</v>
-      </c>
-      <c r="R32" s="14">
-        <v>0</v>
-      </c>
-      <c r="S32" s="14">
-        <v>0</v>
-      </c>
-      <c r="T32" s="14">
-        <v>0</v>
-      </c>
-      <c r="U32" s="14">
-        <v>0</v>
-      </c>
-      <c r="V32" s="14">
-        <v>0</v>
-      </c>
-      <c r="W32" s="14">
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <v>0</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0</v>
+      </c>
+      <c r="O32" s="12">
+        <v>0</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>0</v>
+      </c>
+      <c r="R32" s="12">
+        <v>0</v>
+      </c>
+      <c r="S32" s="12">
+        <v>0</v>
+      </c>
+      <c r="T32" s="12">
+        <v>0</v>
+      </c>
+      <c r="U32" s="12">
+        <v>0</v>
+      </c>
+      <c r="V32" s="12">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
         <v>1</v>
       </c>
       <c r="X32" s="13"/>

--- a/thesis/main_new_formulation/concept_new_storage.xlsx
+++ b/thesis/main_new_formulation/concept_new_storage.xlsx
@@ -8,13 +8,80 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C9EA9-37B3-0E4F-9BE3-5645AB31248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1E973-6529-7045-8222-C47A4E84E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="10" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">new!$Y$10:$AD$15,new!$AF$45:$AT$50,new!$AV$73:$BG$73,new!$BP$17,new!$CG$10:$CL$15</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">new!$BS$10:$BX$15</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">new!$CG$30:$CL$31</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">new!$CG$36:$CL$37</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">new!$CG$39:$CL$40</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">new!$CG$42:$CL$43</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">new!$CG$33:$CL$34</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">new!$CG$10:$CL$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">new!$BZ$10:$CE$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">new!$BS$17:$BX$26</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">new!$BP$17</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">new!$AV$73:$BG$73</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">new!$AO$45:$AT$50</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">new!$AJ$45:$AM$50</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">new!$AF$45:$AH$50</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">new!$CG$26:$CL$27</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">15</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">new!$AA$18</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +103,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="167">
   <si>
     <t>time_day</t>
   </si>
@@ -312,9 +379,6 @@
     <t>SOC max</t>
   </si>
   <si>
-    <t>SOC start</t>
-  </si>
-  <si>
     <t>MAX dis</t>
   </si>
   <si>
@@ -399,9 +463,6 @@
     <t>a.8</t>
   </si>
   <si>
-    <t>a.9</t>
-  </si>
-  <si>
     <t>a.10</t>
   </si>
   <si>
@@ -423,9 +484,6 @@
     <t>t.4</t>
   </si>
   <si>
-    <t>t.5</t>
-  </si>
-  <si>
     <t>t.6</t>
   </si>
   <si>
@@ -501,9 +559,6 @@
     <t>SOC_second_part</t>
   </si>
   <si>
-    <t>Thermal Insul</t>
-  </si>
-  <si>
     <t>a.15</t>
   </si>
   <si>
@@ -546,9 +601,6 @@
     <t>a.5B</t>
   </si>
   <si>
-    <t>Activity seasonal limit &gt;0</t>
-  </si>
-  <si>
     <t>HP summer</t>
   </si>
   <si>
@@ -562,6 +614,18 @@
   </si>
   <si>
     <t>X_tech (no_stor)</t>
+  </si>
+  <si>
+    <t>Insulation y/n</t>
+  </si>
+  <si>
+    <t>TI cost</t>
+  </si>
+  <si>
+    <t>cap_activ</t>
+  </si>
+  <si>
+    <t>cap_tot</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097AE1A-0E18-DF48-8976-354601D23DDF}">
-  <dimension ref="A1:CP74"/>
+  <dimension ref="A1:CN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="BF52" sqref="BF52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1320,7 @@
     <col min="40" max="40" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,83 +1350,83 @@
       <c r="AD1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="BI1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="BK1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BS1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BU1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="BX1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="CE1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="CL1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CM1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1392,83 +1456,83 @@
       <c r="AD2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BI2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="BK2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BN2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BS2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BU2" s="3" t="s">
+      <c r="BV2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="CA2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BZ2" s="3" t="s">
+      <c r="CB2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="CC2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="CD2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CE2" s="3" t="s">
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CK2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CL2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="CM2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -1480,28 +1544,28 @@
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
       <c r="BO3" s="3"/>
       <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
       <c r="BU3" s="3"/>
       <c r="BV3" s="3"/>
       <c r="BW3" s="3"/>
       <c r="BX3" s="3"/>
-      <c r="BY3" s="3"/>
-      <c r="BZ3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
-      <c r="CM3" s="3"/>
-      <c r="CN3" s="3"/>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1553,17 +1617,17 @@
         <v>21</v>
       </c>
       <c r="W4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BH4" s="43" t="s">
+      <c r="BF4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="BI4" s="43"/>
+      <c r="BG4" s="43"/>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1590,50 +1654,46 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
       <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" t="s">
+        <v>116</v>
+      </c>
       <c r="AW5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY5" t="s">
         <v>118</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AZ5" t="s">
         <v>119</v>
       </c>
-      <c r="AY5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>120</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>121</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>122</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>123</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>124</v>
       </c>
-      <c r="BE5" t="s">
-        <v>125</v>
-      </c>
       <c r="BF5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="BG5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BJ5" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1646,53 +1706,51 @@
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="AF6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG6" t="s">
         <v>106</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>107</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>108</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL6" t="s">
         <v>109</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>110</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>111</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>112</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>113</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>114</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>115</v>
       </c>
-      <c r="AR6" t="s">
-        <v>116</v>
-      </c>
       <c r="AS6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AT6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
@@ -1706,10 +1764,8 @@
       <c r="BF6" s="3"/>
       <c r="BG6" s="3"/>
       <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1743,7 +1799,7 @@
         <v>48</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>49</v>
@@ -1776,10 +1832,10 @@
         <v>39</v>
       </c>
       <c r="AJ7" s="55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AK7" s="55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AL7" s="6" t="s">
         <v>40</v>
@@ -1788,72 +1844,66 @@
         <v>29</v>
       </c>
       <c r="AN7" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO7" s="42" t="s">
-        <v>147</v>
+        <v>130</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="AP7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AQ7" s="6" t="s">
+      <c r="BA7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AR7" s="6" t="s">
+      <c r="BB7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AS7" s="6" t="s">
+      <c r="BC7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AT7" s="6" t="s">
+      <c r="BD7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AU7" s="6" t="s">
+      <c r="BE7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH7" s="42" t="s">
+      <c r="BF7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="BI7" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ7" s="6"/>
+      <c r="BG7" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH7" s="6"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1960,10 +2010,10 @@
       <c r="AT8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AU8" s="9" t="s">
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AV8" s="9"/>
       <c r="AW8" s="9" t="s">
         <v>56</v>
       </c>
@@ -1991,23 +2041,19 @@
       <c r="BE8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BF8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG8" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
       <c r="BH8" s="9"/>
-      <c r="BI8" s="9"/>
-      <c r="BJ8" s="9"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
       <c r="BN8" s="7"/>
       <c r="BO8" s="7"/>
       <c r="BP8" s="7"/>
-      <c r="BQ8" s="7"/>
       <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
       <c r="BT8" s="7"/>
       <c r="BU8" s="7"/>
       <c r="BV8" s="7"/>
@@ -2029,10 +2075,8 @@
       <c r="CL8" s="7"/>
       <c r="CM8" s="7"/>
       <c r="CN8" s="7"/>
-      <c r="CO8" s="7"/>
-      <c r="CP8" s="7"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2046,31 +2090,31 @@
         <v>72</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BK9" s="11" t="s">
+      <c r="BI9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BR9" t="s">
-        <v>151</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>152</v>
-      </c>
-      <c r="BU9" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="CB9" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="CI9" s="11" t="s">
+      <c r="BP9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BS9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="CG9" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -2093,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="14">
         <v>1</v>
@@ -2130,22 +2174,22 @@
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="25">
-        <v>12.997731999999999</v>
+        <v>13.10004</v>
       </c>
       <c r="Z10" s="25">
-        <v>10.519539999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AA10" s="25">
-        <v>13.300459999999999</v>
+        <v>13.50004</v>
       </c>
       <c r="AB10" s="25">
-        <v>11.24469</v>
+        <v>10.9</v>
       </c>
       <c r="AC10" s="25">
-        <v>10.736069000000001</v>
+        <v>10.9</v>
       </c>
       <c r="AD10" s="25">
-        <v>11.338108999999999</v>
+        <v>11.3</v>
       </c>
       <c r="AE10" s="13"/>
       <c r="AF10" s="14">
@@ -2181,21 +2225,19 @@
       <c r="AP10" s="14">
         <v>0</v>
       </c>
-      <c r="AQ10" s="14">
-        <v>0</v>
+      <c r="AQ10" s="15">
+        <v>0.6</v>
       </c>
       <c r="AR10" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AS10" s="15">
         <v>1.2</v>
       </c>
+      <c r="AS10" s="14">
+        <v>0</v>
+      </c>
       <c r="AT10" s="14">
         <v>0</v>
       </c>
-      <c r="AU10" s="14">
-        <v>0</v>
-      </c>
+      <c r="AU10" s="13"/>
       <c r="AV10" s="13"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
@@ -2209,57 +2251,61 @@
       <c r="BF10" s="13"/>
       <c r="BG10" s="13"/>
       <c r="BH10" s="13"/>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="13"/>
+      <c r="BI10" s="14">
+        <v>10</v>
+      </c>
+      <c r="BJ10" s="14">
+        <v>8</v>
+      </c>
       <c r="BK10" s="14">
         <v>10</v>
       </c>
       <c r="BL10" s="14">
+        <v>10</v>
+      </c>
+      <c r="BM10" s="14">
         <v>8</v>
-      </c>
-      <c r="BM10" s="14">
-        <v>10</v>
       </c>
       <c r="BN10" s="14">
         <v>10</v>
       </c>
-      <c r="BO10" s="14">
-        <v>8</v>
-      </c>
       <c r="BP10" s="14">
-        <v>10</v>
-      </c>
-      <c r="BR10" s="14">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="38" cm="1">
-        <f t="array" ref="BS10:BS15">(1+BR10:BR15)*BA76</f>
-        <v>0</v>
-      </c>
-      <c r="BT10" s="13"/>
-      <c r="BU10" s="17" cm="1">
-        <f t="array" ref="BU10:BZ15">Y10:AD15-MMULT(AF10:AU15,TRANSPOSE(AF46:AU51))-BK10:BP15*_xlfn.ANCHORARRAY(BS10)-CI10:CN15</f>
-        <v>9.9999997727769987</v>
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="38" cm="1">
+        <f t="array" ref="BQ10:BQ15">1+BP10:BP15*BP17</f>
+        <v>1</v>
+      </c>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="17" cm="1">
+        <f t="array" ref="BS10:BX15">Y10:AD15-MMULT(AF10:AT15,TRANSPOSE(AF45:AT50))-BI10:BN15*_xlfn.ANCHORARRAY(BQ10)-CG10:CL15</f>
+        <v>0</v>
+      </c>
+      <c r="BT10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="18">
+        <v>0</v>
       </c>
       <c r="BV10" s="18">
-        <v>7.9999999999999991</v>
+        <v>0</v>
       </c>
       <c r="BW10" s="18">
-        <v>10</v>
-      </c>
-      <c r="BX10" s="18">
-        <v>9.9999997272230008</v>
-      </c>
-      <c r="BY10" s="18">
-        <v>7.9999997800000004</v>
-      </c>
-      <c r="BZ10" s="19">
-        <v>10.000000119999999</v>
-      </c>
-      <c r="CA10" s="13"/>
-      <c r="CB10" s="17" cm="1">
-        <f t="array" ref="CB10:CG15">MMULT(J10:W15,TRANSPOSE(_xlfn.ANCHORARRAY(J46)))-Y10:AD15</f>
-        <v>2.3000000304307378E-7</v>
+        <v>0</v>
+      </c>
+      <c r="BX10" s="19">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="17" cm="1">
+        <f t="array" ref="BZ10:CE15">MMULT(J10:W15,TRANSPOSE(_xlfn.ANCHORARRAY(J45)))-Y10:AD15</f>
+        <v>0</v>
+      </c>
+      <c r="CA10" s="18">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="18">
+        <v>0</v>
       </c>
       <c r="CC10" s="18">
         <v>0</v>
@@ -2267,16 +2313,16 @@
       <c r="CD10" s="18">
         <v>0</v>
       </c>
-      <c r="CE10" s="18">
-        <v>7.6999999976123945E-7</v>
-      </c>
-      <c r="CF10" s="18">
-        <v>2.0000000056086265E-7</v>
-      </c>
-      <c r="CG10" s="19">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="13"/>
+      <c r="CE10" s="19">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="13"/>
+      <c r="CG10" s="25">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="25">
+        <v>0</v>
+      </c>
       <c r="CI10" s="25">
         <v>0</v>
       </c>
@@ -2289,14 +2335,8 @@
       <c r="CL10" s="25">
         <v>0</v>
       </c>
-      <c r="CM10" s="25">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -2356,22 +2396,22 @@
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="25">
-        <v>6.4004050000000001</v>
+        <v>7</v>
       </c>
       <c r="Z11" s="25">
-        <v>4.2392000000000003</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA11" s="25">
-        <v>7.4008000000000003</v>
+        <v>8</v>
       </c>
       <c r="AB11" s="25">
-        <v>0.99919999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="25">
-        <v>1.0007231000000001</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="25">
-        <v>1.9999671999999999</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="13"/>
       <c r="AF11" s="14">
@@ -2401,15 +2441,15 @@
       <c r="AN11" s="14">
         <v>1E-3</v>
       </c>
-      <c r="AO11" s="14">
-        <v>0</v>
+      <c r="AO11" s="15">
+        <v>1.2</v>
       </c>
       <c r="AP11" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="AQ11" s="15">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AQ11" s="14">
+        <v>0</v>
+      </c>
       <c r="AR11" s="14">
         <v>0</v>
       </c>
@@ -2419,9 +2459,7 @@
       <c r="AT11" s="14">
         <v>0</v>
       </c>
-      <c r="AU11" s="14">
-        <v>0</v>
-      </c>
+      <c r="AU11" s="13"/>
       <c r="AV11" s="13"/>
       <c r="AW11" s="13"/>
       <c r="AX11" s="13"/>
@@ -2435,53 +2473,57 @@
       <c r="BF11" s="13"/>
       <c r="BG11" s="13"/>
       <c r="BH11" s="13"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="13"/>
+      <c r="BI11" s="14">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="14">
+        <v>1</v>
+      </c>
       <c r="BK11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL11" s="14">
         <v>1</v>
       </c>
       <c r="BM11" s="14">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="14">
         <v>2</v>
       </c>
-      <c r="BN11" s="14">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="14">
-        <v>1</v>
-      </c>
       <c r="BP11" s="14">
-        <v>2</v>
-      </c>
-      <c r="BR11" s="14">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="38">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="13"/>
-      <c r="BU11" s="20">
-        <v>1.0000000000000009</v>
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="38">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="13">
+        <v>0</v>
       </c>
       <c r="BV11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="13">
-        <v>2.0000000000000009</v>
-      </c>
-      <c r="BX11" s="13">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="13">
-        <v>1.0000000500000001</v>
-      </c>
-      <c r="BZ11" s="21">
-        <v>2.000000005</v>
-      </c>
-      <c r="CA11" s="13"/>
-      <c r="CB11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="13">
         <v>0</v>
       </c>
       <c r="CC11" s="13">
@@ -2490,16 +2532,16 @@
       <c r="CD11" s="13">
         <v>0</v>
       </c>
-      <c r="CE11" s="13">
-        <v>0</v>
-      </c>
-      <c r="CF11" s="13">
-        <v>-5.0000000140215661E-8</v>
-      </c>
-      <c r="CG11" s="21">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="13"/>
+      <c r="CE11" s="21">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="25">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="25">
+        <v>0</v>
+      </c>
       <c r="CI11" s="25">
         <v>0</v>
       </c>
@@ -2512,14 +2554,8 @@
       <c r="CL11" s="25">
         <v>0</v>
       </c>
-      <c r="CM11" s="25">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -2588,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="AB12" s="25">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="25">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="AD12" s="25">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="13"/>
       <c r="AF12" s="14">
@@ -2642,35 +2678,38 @@
       <c r="AT12" s="14">
         <v>0</v>
       </c>
-      <c r="AU12" s="14">
+      <c r="BI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="14">
         <v>0</v>
       </c>
       <c r="BK12" s="14">
         <v>0</v>
       </c>
       <c r="BL12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM12" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN12" s="14">
         <v>1</v>
       </c>
-      <c r="BO12" s="14">
-        <v>5</v>
-      </c>
       <c r="BP12" s="14">
-        <v>1</v>
-      </c>
-      <c r="BR12" s="14">
         <v>0.05</v>
       </c>
-      <c r="BS12" s="38">
-        <v>0</v>
-      </c>
-      <c r="BT12" s="13"/>
-      <c r="BU12" s="20">
+      <c r="BQ12" s="38">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="13"/>
+      <c r="BS12" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="13">
         <v>0</v>
       </c>
       <c r="BV12" s="13">
@@ -2679,17 +2718,17 @@
       <c r="BW12" s="13">
         <v>0</v>
       </c>
-      <c r="BX12" s="13">
-        <v>1.05</v>
-      </c>
-      <c r="BY12" s="13">
-        <v>5.25</v>
-      </c>
-      <c r="BZ12" s="21">
-        <v>1.05</v>
-      </c>
-      <c r="CA12" s="13"/>
-      <c r="CB12" s="20">
+      <c r="BX12" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="13">
         <v>0</v>
       </c>
       <c r="CC12" s="13">
@@ -2698,16 +2737,16 @@
       <c r="CD12" s="13">
         <v>0</v>
       </c>
-      <c r="CE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="CF12" s="13">
-        <v>0</v>
-      </c>
-      <c r="CG12" s="21">
-        <v>0</v>
-      </c>
-      <c r="CH12" s="13"/>
+      <c r="CE12" s="21">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="13"/>
+      <c r="CG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="25">
+        <v>0</v>
+      </c>
       <c r="CI12" s="25">
         <v>0</v>
       </c>
@@ -2720,14 +2759,8 @@
       <c r="CL12" s="25">
         <v>0</v>
       </c>
-      <c r="CM12" s="25">
-        <v>0</v>
-      </c>
-      <c r="CN12" s="25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -2787,13 +2820,13 @@
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="25">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="25">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AA13" s="25">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="25">
         <v>0</v>
@@ -2850,54 +2883,57 @@
       <c r="AT13" s="14">
         <v>0</v>
       </c>
-      <c r="AU13" s="14">
-        <v>0</v>
+      <c r="BI13" s="14">
+        <v>5</v>
+      </c>
+      <c r="BJ13" s="14">
+        <v>3</v>
       </c>
       <c r="BK13" s="14">
         <v>5</v>
       </c>
       <c r="BL13" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM13" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="14">
         <v>0</v>
       </c>
-      <c r="BO13" s="14">
-        <v>0</v>
-      </c>
       <c r="BP13" s="14">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="14">
         <v>-0.1</v>
       </c>
-      <c r="BS13" s="38">
-        <v>0</v>
-      </c>
-      <c r="BT13" s="13"/>
-      <c r="BU13" s="20">
-        <v>4.5</v>
+      <c r="BQ13" s="38">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="13"/>
+      <c r="BS13" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="13">
+        <v>0</v>
       </c>
       <c r="BV13" s="13">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BW13" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="BX13" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="21">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="13"/>
-      <c r="CB13" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="13"/>
+      <c r="BZ13" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="13">
         <v>0</v>
       </c>
       <c r="CC13" s="13">
@@ -2906,16 +2942,16 @@
       <c r="CD13" s="13">
         <v>0</v>
       </c>
-      <c r="CE13" s="13">
-        <v>0</v>
-      </c>
-      <c r="CF13" s="13">
-        <v>0</v>
-      </c>
-      <c r="CG13" s="21">
-        <v>0</v>
-      </c>
-      <c r="CH13" s="13"/>
+      <c r="CE13" s="21">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="13"/>
+      <c r="CG13" s="25">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="25">
+        <v>0</v>
+      </c>
       <c r="CI13" s="25">
         <v>0</v>
       </c>
@@ -2928,14 +2964,8 @@
       <c r="CL13" s="25">
         <v>0</v>
       </c>
-      <c r="CM13" s="25">
-        <v>0</v>
-      </c>
-      <c r="CN13" s="25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -3058,54 +3088,57 @@
       <c r="AT14" s="14">
         <v>0</v>
       </c>
-      <c r="AU14" s="14">
-        <v>0</v>
+      <c r="BI14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BJ14" s="14">
+        <v>1</v>
       </c>
       <c r="BK14" s="14">
+        <v>2</v>
+      </c>
+      <c r="BL14" s="14">
         <v>0.5</v>
       </c>
-      <c r="BL14" s="14">
-        <v>1</v>
-      </c>
       <c r="BM14" s="14">
+        <v>1</v>
+      </c>
+      <c r="BN14" s="14">
         <v>2</v>
       </c>
-      <c r="BN14" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BO14" s="14">
-        <v>1</v>
-      </c>
       <c r="BP14" s="14">
-        <v>2</v>
-      </c>
-      <c r="BR14" s="14">
-        <v>0</v>
-      </c>
-      <c r="BS14" s="38">
-        <v>0</v>
-      </c>
-      <c r="BT14" s="13"/>
-      <c r="BU14" s="20">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="38">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="13"/>
+      <c r="BS14" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="13">
+        <v>0</v>
       </c>
       <c r="BV14" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="13">
-        <v>2</v>
-      </c>
-      <c r="BX14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="BY14" s="13">
-        <v>1</v>
-      </c>
-      <c r="BZ14" s="21">
-        <v>2</v>
-      </c>
-      <c r="CA14" s="13"/>
-      <c r="CB14" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="13"/>
+      <c r="BZ14" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="13">
         <v>0</v>
       </c>
       <c r="CC14" s="13">
@@ -3114,16 +3147,16 @@
       <c r="CD14" s="13">
         <v>0</v>
       </c>
-      <c r="CE14" s="13">
-        <v>0</v>
-      </c>
-      <c r="CF14" s="13">
-        <v>0</v>
-      </c>
-      <c r="CG14" s="21">
-        <v>0</v>
-      </c>
-      <c r="CH14" s="13"/>
+      <c r="CE14" s="21">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="13"/>
+      <c r="CG14" s="25">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="25">
+        <v>0</v>
+      </c>
       <c r="CI14" s="25">
         <v>0</v>
       </c>
@@ -3136,14 +3169,8 @@
       <c r="CL14" s="25">
         <v>0</v>
       </c>
-      <c r="CM14" s="25">
-        <v>0</v>
-      </c>
-      <c r="CN14" s="25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -3203,13 +3230,13 @@
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="25">
-        <v>0.75</v>
+        <v>1.6388</v>
       </c>
       <c r="Z15" s="25">
         <v>1.5</v>
       </c>
       <c r="AA15" s="25">
-        <v>3</v>
+        <v>4.1111110999999996</v>
       </c>
       <c r="AB15" s="25">
         <v>0.75</v>
@@ -3261,15 +3288,13 @@
       <c r="AR15" s="14">
         <v>0</v>
       </c>
-      <c r="AS15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="15">
+      <c r="AS15" s="15">
         <v>1.5</v>
       </c>
-      <c r="AU15" s="14">
-        <v>0</v>
-      </c>
+      <c r="AT15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="13"/>
       <c r="AV15" s="13"/>
       <c r="AW15" s="13"/>
       <c r="AX15" s="13"/>
@@ -3283,8 +3308,12 @@
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
       <c r="BH15" s="13"/>
-      <c r="BI15" s="13"/>
-      <c r="BJ15" s="13"/>
+      <c r="BI15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="14">
+        <v>0</v>
+      </c>
       <c r="BK15" s="14">
         <v>0</v>
       </c>
@@ -3297,21 +3326,21 @@
       <c r="BN15" s="14">
         <v>0</v>
       </c>
-      <c r="BO15" s="14">
-        <v>0</v>
-      </c>
       <c r="BP15" s="14">
         <v>0</v>
       </c>
-      <c r="BR15" s="14">
-        <v>0</v>
-      </c>
-      <c r="BS15" s="38">
-        <v>0</v>
-      </c>
-      <c r="BT15" s="13"/>
-      <c r="BU15" s="22">
-        <v>0</v>
+      <c r="BQ15" s="38">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="22">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="23">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="23">
+        <v>-1.1111111142270147E-8</v>
       </c>
       <c r="BV15" s="23">
         <v>0</v>
@@ -3319,17 +3348,17 @@
       <c r="BW15" s="23">
         <v>0</v>
       </c>
-      <c r="BX15" s="23">
-        <v>0</v>
-      </c>
-      <c r="BY15" s="23">
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="24">
-        <v>0</v>
-      </c>
-      <c r="CA15" s="13"/>
-      <c r="CB15" s="22">
+      <c r="BX15" s="24">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="13"/>
+      <c r="BZ15" s="22">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="23">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="23">
         <v>0</v>
       </c>
       <c r="CC15" s="23">
@@ -3338,16 +3367,16 @@
       <c r="CD15" s="23">
         <v>0</v>
       </c>
-      <c r="CE15" s="23">
-        <v>0</v>
-      </c>
-      <c r="CF15" s="23">
-        <v>0</v>
-      </c>
-      <c r="CG15" s="24">
-        <v>0</v>
-      </c>
-      <c r="CH15" s="13"/>
+      <c r="CE15" s="24">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="13"/>
+      <c r="CG15" s="25">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="25">
+        <v>0</v>
+      </c>
       <c r="CI15" s="25">
         <v>0</v>
       </c>
@@ -3360,14 +3389,8 @@
       <c r="CL15" s="25">
         <v>0</v>
       </c>
-      <c r="CM15" s="25">
-        <v>0</v>
-      </c>
-      <c r="CN15" s="25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3378,7 +3401,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="3"/>
       <c r="J16" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -3417,10 +3440,10 @@
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
       <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13" t="s">
+      <c r="AV16" s="13" t="s">
         <v>73</v>
       </c>
+      <c r="AW16" s="13"/>
       <c r="AX16" s="13"/>
       <c r="AY16" s="13"/>
       <c r="AZ16" s="13"/>
@@ -3432,40 +3455,38 @@
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
       <c r="BH16" s="13"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="13"/>
-      <c r="BK16" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL16" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="BI16" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ16" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
       <c r="BM16" s="13"/>
       <c r="BN16" s="13"/>
       <c r="BO16" s="13"/>
       <c r="BP16" s="13"/>
-      <c r="BQ16" s="13"/>
       <c r="BR16" s="13"/>
-      <c r="BT16" s="13"/>
-      <c r="BU16" s="27" t="s">
-        <v>128</v>
-      </c>
+      <c r="BS16" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY16" s="13"/>
+      <c r="BZ16" s="13"/>
       <c r="CA16" s="13"/>
       <c r="CB16" s="13"/>
       <c r="CC16" s="13"/>
       <c r="CD16" s="13"/>
       <c r="CE16" s="13"/>
-      <c r="CF16" s="13"/>
-      <c r="CG16" s="13"/>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
       <c r="F17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>25</v>
@@ -3540,9 +3561,11 @@
       <c r="AS17" s="13"/>
       <c r="AT17" s="13"/>
       <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
+      <c r="AV17" s="12">
+        <v>1</v>
+      </c>
       <c r="AW17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="12">
         <v>0</v>
@@ -3574,57 +3597,57 @@
       <c r="BG17" s="12">
         <v>0</v>
       </c>
-      <c r="BH17" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="12">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="13"/>
-      <c r="BK17" s="14">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="14">
-        <v>0</v>
-      </c>
+      <c r="BH17" s="13"/>
+      <c r="BI17" s="14">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL17" s="13"/>
       <c r="BM17" s="13"/>
       <c r="BN17" s="13"/>
-      <c r="BO17" s="13"/>
-      <c r="BP17" s="13"/>
-      <c r="BQ17" s="13"/>
-      <c r="BR17" s="13"/>
-      <c r="BT17" s="6" t="s">
+      <c r="BO17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP17" s="25">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BU17" s="17" cm="1">
-        <f t="array" ref="BU17:BZ27">TRANSPOSE(_xlfn.ANCHORARRAY(AW60)-AW67:BG72)</f>
-        <v>-0.3</v>
+      <c r="BS17" s="17" cm="1">
+        <f t="array" ref="BS17:BX26">TRANSPOSE(_xlfn.ANCHORARRAY(AV59)-AV66:BE71)</f>
+        <v>5.5511151231257827E-17</v>
+      </c>
+      <c r="BT17" s="18">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="BU17" s="18">
+        <v>5.5511151231257827E-17</v>
       </c>
       <c r="BV17" s="18">
-        <v>-0.6</v>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="BW17" s="18">
-        <v>-0.3</v>
-      </c>
-      <c r="BX17" s="18">
-        <v>-0.6</v>
-      </c>
-      <c r="BY17" s="18">
-        <v>-0.9</v>
-      </c>
-      <c r="BZ17" s="19">
-        <v>-0.6</v>
-      </c>
-      <c r="CA17" s="13"/>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="BX17" s="19">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="BY17" s="13"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
       <c r="F18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>37</v>
@@ -3677,16 +3700,16 @@
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="35">
-        <f>SUM(AF67:AU72)</f>
-        <v>9.793660120000002</v>
+        <f>SUM(AF66:AT71)</f>
+        <v>10.37998133</v>
       </c>
       <c r="Z18" s="35" cm="1">
-        <f t="array" ref="Z18">MMULT(AW36:BH36,TRANSPOSE(AW74:BH74))</f>
-        <v>3890.0459999999998</v>
+        <f t="array" ref="Z18">MMULT(AV35:BF35,TRANSPOSE(AV73:BF73))+BP17*BP18</f>
+        <v>4380.0039999999999</v>
       </c>
       <c r="AA18" s="36">
         <f>Y18+Z18</f>
-        <v>3899.8396601199997</v>
+        <v>4390.3839813300001</v>
       </c>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
@@ -3702,12 +3725,14 @@
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
       <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
+      <c r="AV18" s="12">
+        <v>0</v>
+      </c>
       <c r="AW18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="12">
         <v>0</v>
@@ -3736,55 +3761,56 @@
       <c r="BG18" s="12">
         <v>0</v>
       </c>
-      <c r="BH18" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="12">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="14">
-        <v>0</v>
-      </c>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL18" s="13"/>
+      <c r="BM18" s="13"/>
       <c r="BN18" s="13"/>
-      <c r="BO18" s="13"/>
-      <c r="BP18" s="13"/>
-      <c r="BQ18" s="13"/>
-      <c r="BR18" s="13"/>
-      <c r="BT18" s="6" t="s">
+      <c r="BO18" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP18" s="13">
+        <v>10000</v>
+      </c>
+      <c r="BR18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BU18" s="20">
-        <v>-12.400460000000001</v>
+      <c r="BS18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="13">
+        <v>3.1000399999999999</v>
+      </c>
+      <c r="BU18" s="13">
+        <v>0</v>
       </c>
       <c r="BV18" s="13">
-        <v>-10.519539999999999</v>
+        <v>2.5000399999999985</v>
       </c>
       <c r="BW18" s="13">
-        <v>-12.400460000000001</v>
-      </c>
-      <c r="BX18" s="13">
-        <v>-10.541963000000001</v>
-      </c>
-      <c r="BY18" s="13">
-        <v>-9.8360692000000007</v>
-      </c>
-      <c r="BZ18" s="21">
-        <v>-10.738109</v>
-      </c>
-      <c r="CA18" s="13"/>
+        <v>2.8000399999999992</v>
+      </c>
+      <c r="BX18" s="21">
+        <v>2.1000399999999999</v>
+      </c>
+      <c r="BY18" s="13"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
       <c r="F19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>38</v>
@@ -3800,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M19" s="12">
         <v>0</v>
@@ -3853,12 +3879,14 @@
       <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
       <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
+      <c r="AV19" s="12">
+        <v>0</v>
+      </c>
       <c r="AW19" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="12">
         <v>0</v>
@@ -3878,64 +3906,61 @@
       <c r="BD19" s="12">
         <v>0</v>
       </c>
-      <c r="BE19" s="12">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="12">
+      <c r="BE19" s="26">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="26">
         <v>0</v>
       </c>
       <c r="BG19" s="26">
         <v>0</v>
       </c>
-      <c r="BH19" s="26">
-        <v>0</v>
-      </c>
-      <c r="BI19" s="26">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="14">
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="14">
         <v>-1</v>
       </c>
-      <c r="BL19" s="14">
-        <v>0</v>
-      </c>
+      <c r="BJ19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL19" s="13"/>
+      <c r="BM19" s="13"/>
       <c r="BN19" s="13"/>
       <c r="BO19" s="13"/>
       <c r="BP19" s="13"/>
-      <c r="BQ19" s="13"/>
-      <c r="BR19" s="13"/>
-      <c r="BT19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="BU19" s="20">
-        <v>-5.9954049999999999</v>
+      <c r="BR19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS19" s="20">
+        <v>0.79992000000000019</v>
+      </c>
+      <c r="BT19" s="13">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="BU19" s="13">
+        <v>0</v>
       </c>
       <c r="BV19" s="13">
-        <v>-5.0392000000000001</v>
+        <v>5</v>
       </c>
       <c r="BW19" s="13">
-        <v>-6.6007999999999996</v>
-      </c>
-      <c r="BX19" s="13">
-        <v>-2.8491999999999997</v>
-      </c>
-      <c r="BY19" s="13">
-        <v>-5.5276730499999998</v>
-      </c>
-      <c r="BZ19" s="21">
-        <v>-3.0827722</v>
-      </c>
-      <c r="CA19" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="BX19" s="21">
+        <v>4</v>
+      </c>
+      <c r="BY19" s="13"/>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>39</v>
@@ -4004,7 +4029,9 @@
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
       <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
+      <c r="AV20" s="12">
+        <v>0</v>
+      </c>
       <c r="AW20" s="12">
         <v>0</v>
       </c>
@@ -4029,67 +4056,64 @@
       <c r="BD20" s="12">
         <v>0</v>
       </c>
-      <c r="BE20" s="12">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="12">
-        <v>0</v>
-      </c>
-      <c r="BG20" s="26">
-        <v>0</v>
-      </c>
-      <c r="BH20" s="44">
-        <v>1</v>
-      </c>
-      <c r="BI20" s="44">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="13"/>
-      <c r="BK20" s="14">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="14">
-        <v>0</v>
-      </c>
+      <c r="BE20" s="26">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="44">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="13"/>
+      <c r="BI20" s="14">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL20" s="13"/>
+      <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BO20" s="13"/>
       <c r="BP20" s="13"/>
-      <c r="BQ20" s="13"/>
-      <c r="BR20" s="13"/>
-      <c r="BT20" s="6" t="s">
+      <c r="BR20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BU20" s="20">
+      <c r="BS20" s="20">
+        <v>0.20008000000000004</v>
+      </c>
+      <c r="BT20" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU20" s="13">
         <v>0</v>
       </c>
       <c r="BV20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW20" s="13">
-        <v>0</v>
-      </c>
-      <c r="BX20" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY20" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ20" s="21">
-        <v>0</v>
-      </c>
-      <c r="CA20" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="BX20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BY20" s="13"/>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
       <c r="F21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>151</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>56</v>
@@ -4154,15 +4178,17 @@
       <c r="AS21" s="13"/>
       <c r="AT21" s="13"/>
       <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
+      <c r="AV21" s="12">
+        <v>0</v>
+      </c>
       <c r="AW21" s="12">
         <v>0</v>
       </c>
       <c r="AX21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="12">
         <v>0</v>
@@ -4188,52 +4214,49 @@
       <c r="BG21" s="12">
         <v>0</v>
       </c>
-      <c r="BH21" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI21" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="14">
-        <v>1</v>
-      </c>
-      <c r="BT21" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU21" s="20">
+      <c r="BI21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS21" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU21" s="13">
         <v>0</v>
       </c>
       <c r="BV21" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BW21" s="13">
-        <v>0</v>
-      </c>
-      <c r="BX21" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY21" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ21" s="21">
-        <v>0</v>
-      </c>
-      <c r="CA21" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="BX21" s="21">
+        <v>5</v>
+      </c>
+      <c r="BY21" s="13"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
       <c r="F22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>152</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>56</v>
@@ -4298,15 +4321,17 @@
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
       <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
+      <c r="AV22" s="12">
+        <v>0</v>
+      </c>
       <c r="AW22" s="12">
         <v>0</v>
       </c>
       <c r="AX22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="12">
         <v>0</v>
@@ -4332,47 +4357,44 @@
       <c r="BG22" s="12">
         <v>0</v>
       </c>
-      <c r="BH22" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI22" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK22" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL22" s="14">
-        <v>1</v>
-      </c>
-      <c r="BT22" s="6"/>
-      <c r="BU22" s="20">
-        <v>-4.5</v>
+      <c r="BI22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR22" s="6"/>
+      <c r="BS22" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="13">
+        <v>0</v>
       </c>
       <c r="BV22" s="13">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="BW22" s="13">
-        <v>-4.5</v>
-      </c>
-      <c r="BX22" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY22" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ22" s="21">
-        <v>0</v>
-      </c>
-      <c r="CA22" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="BX22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="13"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>40</v>
@@ -4440,15 +4462,17 @@
       <c r="AS23" s="13"/>
       <c r="AT23" s="13"/>
       <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
+      <c r="AV23" s="12">
+        <v>0</v>
+      </c>
       <c r="AW23" s="12">
         <v>0</v>
       </c>
       <c r="AX23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="12">
         <v>0</v>
@@ -4474,22 +4498,25 @@
       <c r="BG23" s="12">
         <v>0</v>
       </c>
-      <c r="BH23" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI23" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK23" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL23" s="14">
-        <v>0</v>
-      </c>
-      <c r="BT23" s="6" t="s">
+      <c r="BI23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BU23" s="20">
+      <c r="BS23" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="13">
         <v>0</v>
       </c>
       <c r="BV23" s="13">
@@ -4498,31 +4525,25 @@
       <c r="BW23" s="13">
         <v>0</v>
       </c>
-      <c r="BX23" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY23" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ23" s="21">
-        <v>0</v>
-      </c>
+      <c r="BX23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY23" s="13"/>
+      <c r="BZ23" s="13"/>
       <c r="CA23" s="13"/>
       <c r="CB23" s="13"/>
       <c r="CC23" s="13"/>
       <c r="CD23" s="13"/>
       <c r="CE23" s="13"/>
-      <c r="CF23" s="13"/>
-      <c r="CG23" s="13"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
       <c r="F24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>29</v>
@@ -4590,7 +4611,9 @@
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
       <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
+      <c r="AV24" s="12">
+        <v>0</v>
+      </c>
       <c r="AW24" s="12">
         <v>0</v>
       </c>
@@ -4598,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="AY24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="12">
         <v>0</v>
@@ -4624,22 +4647,25 @@
       <c r="BG24" s="12">
         <v>0</v>
       </c>
-      <c r="BH24" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI24" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK24" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL24" s="14">
-        <v>1</v>
-      </c>
-      <c r="BT24" s="6" t="s">
+      <c r="BI24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BU24" s="20">
+      <c r="BS24" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="13">
         <v>0</v>
       </c>
       <c r="BV24" s="13">
@@ -4648,34 +4674,28 @@
       <c r="BW24" s="13">
         <v>0</v>
       </c>
-      <c r="BX24" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY24" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ24" s="21">
-        <v>0</v>
-      </c>
+      <c r="BX24" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="13"/>
+      <c r="BZ24" s="13"/>
       <c r="CA24" s="13"/>
       <c r="CB24" s="13"/>
       <c r="CC24" s="13"/>
       <c r="CD24" s="13"/>
       <c r="CE24" s="13"/>
-      <c r="CF24" s="13"/>
-      <c r="CG24" s="13"/>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>56</v>
@@ -4740,7 +4760,9 @@
       <c r="AS25" s="13"/>
       <c r="AT25" s="13"/>
       <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
+      <c r="AV25" s="12">
+        <v>0</v>
+      </c>
       <c r="AW25" s="12">
         <v>0</v>
       </c>
@@ -4772,60 +4794,57 @@
         <v>0</v>
       </c>
       <c r="BG25" s="12">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI25" s="12">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="14">
-        <v>1</v>
-      </c>
-      <c r="BT25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BU25" s="20">
+      <c r="BS25" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="BT25" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU25" s="13">
         <v>0</v>
       </c>
       <c r="BV25" s="13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BW25" s="13">
-        <v>0</v>
-      </c>
-      <c r="BX25" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY25" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ25" s="21">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="BX25" s="21">
+        <v>0</v>
+      </c>
+      <c r="BY25" s="13"/>
+      <c r="BZ25" s="13"/>
       <c r="CA25" s="13"/>
       <c r="CB25" s="13"/>
       <c r="CC25" s="13"/>
       <c r="CD25" s="13"/>
       <c r="CE25" s="13"/>
-      <c r="CF25" s="13"/>
-      <c r="CG25" s="13"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>56</v>
@@ -4856,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="12">
         <v>0</v>
@@ -4890,7 +4909,9 @@
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
       <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
+      <c r="AV26" s="12">
+        <v>0</v>
+      </c>
       <c r="AW26" s="12">
         <v>0</v>
       </c>
@@ -4901,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="12">
         <v>0</v>
@@ -4924,61 +4945,77 @@
       <c r="BG26" s="12">
         <v>0</v>
       </c>
-      <c r="BH26" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="14">
-        <v>0</v>
-      </c>
-      <c r="BT26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="BU26" s="20">
-        <v>-0.5</v>
+      <c r="BI26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS26" s="20">
+        <v>9997.3611999999994</v>
+      </c>
+      <c r="BT26" s="13">
+        <v>9997.5</v>
+      </c>
+      <c r="BU26" s="13">
+        <v>9994.8888889000009</v>
       </c>
       <c r="BV26" s="13">
-        <v>-1</v>
+        <v>9998.25</v>
       </c>
       <c r="BW26" s="13">
-        <v>-2</v>
-      </c>
-      <c r="BX26" s="13">
-        <v>-0.5</v>
-      </c>
-      <c r="BY26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="BZ26" s="21">
-        <v>-2</v>
-      </c>
+        <v>9997.5</v>
+      </c>
+      <c r="BX26" s="21">
+        <v>9996</v>
+      </c>
+      <c r="BY26" s="13"/>
+      <c r="BZ26" s="13"/>
       <c r="CA26" s="13"/>
       <c r="CB26" s="13"/>
       <c r="CC26" s="13"/>
       <c r="CD26" s="13"/>
       <c r="CE26" s="13"/>
-      <c r="CF26" s="13"/>
-      <c r="CG26" s="13"/>
-      <c r="CI26" t="s">
-        <v>162</v>
+      <c r="CF26" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG26" cm="1">
+        <f t="array" ref="CG26:CL27">TRANSPOSE(_xlfn.ANCHORARRAY(AJ59)-AJ45:AK50)</f>
+        <v>0.79992000000000019</v>
+      </c>
+      <c r="CH26">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <v>0</v>
+      </c>
+      <c r="CK26">
+        <v>0</v>
+      </c>
+      <c r="CL26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
       <c r="F27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>56</v>
@@ -5009,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="12">
         <v>0</v>
@@ -5043,7 +5080,9 @@
       <c r="AS27" s="13"/>
       <c r="AT27" s="13"/>
       <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
+      <c r="AV27" s="12">
+        <v>0</v>
+      </c>
       <c r="AW27" s="12">
         <v>0</v>
       </c>
@@ -5057,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="BA27" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="12">
         <v>0</v>
@@ -5077,80 +5116,64 @@
       <c r="BG27" s="12">
         <v>0</v>
       </c>
-      <c r="BH27" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI27" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK27" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="14">
-        <v>0</v>
-      </c>
-      <c r="BT27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="BU27" s="20">
-        <v>-0.75</v>
-      </c>
-      <c r="BV27" s="13">
-        <v>-1.5</v>
-      </c>
-      <c r="BW27" s="13">
-        <v>-3</v>
-      </c>
-      <c r="BX27" s="13">
-        <v>-0.75</v>
-      </c>
-      <c r="BY27" s="13">
-        <v>-1.5</v>
-      </c>
-      <c r="BZ27" s="21">
-        <v>-3</v>
-      </c>
+      <c r="BI27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS27" s="22"/>
+      <c r="BT27" s="23"/>
+      <c r="BU27" s="23"/>
+      <c r="BV27" s="23"/>
+      <c r="BW27" s="23"/>
+      <c r="BX27" s="24"/>
+      <c r="BY27" s="13"/>
+      <c r="BZ27" s="13"/>
       <c r="CA27" s="13"/>
       <c r="CB27" s="13"/>
       <c r="CC27" s="13"/>
       <c r="CD27" s="13"/>
       <c r="CE27" s="13"/>
-      <c r="CF27" s="13"/>
-      <c r="CG27" s="13"/>
-      <c r="CH27" t="s">
-        <v>160</v>
-      </c>
-      <c r="CI27" cm="1">
-        <f t="array" ref="CI27:CN28">TRANSPOSE(_xlfn.ANCHORARRAY(AJ60)-AJ46:AK51)</f>
-        <v>-5.9954049999999999</v>
+      <c r="CF27" t="s">
+        <v>158</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>0</v>
+      </c>
+      <c r="CI27">
+        <v>0</v>
       </c>
       <c r="CJ27">
-        <v>-5.0392000000000001</v>
+        <v>6</v>
       </c>
       <c r="CK27">
-        <v>-6.6007999999999996</v>
+        <v>6</v>
       </c>
       <c r="CL27">
-        <v>0</v>
-      </c>
-      <c r="CM27">
-        <v>0</v>
-      </c>
-      <c r="CN27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="6"/>
       <c r="F28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>56</v>
@@ -5184,10 +5207,10 @@
         <v>0</v>
       </c>
       <c r="S28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="12">
         <v>0</v>
@@ -5215,7 +5238,9 @@
       <c r="AS28" s="13"/>
       <c r="AT28" s="13"/>
       <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
+      <c r="AV28" s="12">
+        <v>0</v>
+      </c>
       <c r="AW28" s="12">
         <v>0</v>
       </c>
@@ -5232,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="BB28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28" s="12">
         <v>0</v>
@@ -5249,67 +5274,38 @@
       <c r="BG28" s="12">
         <v>0</v>
       </c>
-      <c r="BH28" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI28" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK28" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="14">
-        <v>0</v>
-      </c>
-      <c r="BT28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="23"/>
-      <c r="BW28" s="23"/>
-      <c r="BX28" s="23"/>
-      <c r="BY28" s="23"/>
-      <c r="BZ28" s="24"/>
+      <c r="BI28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR28" s="13"/>
+      <c r="BY28" s="13"/>
+      <c r="BZ28" s="13"/>
       <c r="CA28" s="13"/>
       <c r="CB28" s="13"/>
       <c r="CC28" s="13"/>
       <c r="CD28" s="13"/>
       <c r="CE28" s="13"/>
-      <c r="CF28" s="13"/>
-      <c r="CG28" s="13"/>
-      <c r="CH28" t="s">
-        <v>163</v>
-      </c>
-      <c r="CI28">
-        <v>0</v>
-      </c>
-      <c r="CJ28">
-        <v>0</v>
-      </c>
-      <c r="CK28">
-        <v>0</v>
-      </c>
-      <c r="CL28">
-        <v>-1.7991999999999999</v>
-      </c>
-      <c r="CM28">
-        <v>-0.27767304999999998</v>
-      </c>
-      <c r="CN28">
-        <v>-2.0327722000000001</v>
-      </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="6"/>
       <c r="F29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>56</v>
@@ -5346,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="T29" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="12">
         <v>0</v>
@@ -5374,7 +5370,9 @@
       <c r="AS29" s="13"/>
       <c r="AT29" s="13"/>
       <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
+      <c r="AV29" s="12">
+        <v>0</v>
+      </c>
       <c r="AW29" s="12">
         <v>0</v>
       </c>
@@ -5394,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="BC29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD29" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="12">
         <v>0</v>
@@ -5408,41 +5406,52 @@
       <c r="BG29" s="12">
         <v>0</v>
       </c>
-      <c r="BH29" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI29" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK29" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL29" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN29" t="s">
-        <v>143</v>
-      </c>
-      <c r="BT29" s="13"/>
+      <c r="BI29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL29" s="13" cm="1">
+        <f t="array" ref="BL29:BL34">AI45:AI50</f>
+        <v>0</v>
+      </c>
+      <c r="BM29" s="13" cm="1">
+        <f t="array" ref="BM29:BM34">AN45:AN50</f>
+        <v>0</v>
+      </c>
+      <c r="BR29" s="13"/>
+      <c r="BY29" s="13"/>
+      <c r="BZ29" s="13"/>
       <c r="CA29" s="13"/>
       <c r="CB29" s="13"/>
       <c r="CC29" s="13"/>
       <c r="CD29" s="13"/>
       <c r="CE29" s="13"/>
       <c r="CF29" s="13"/>
-      <c r="CG29" s="13"/>
+      <c r="CG29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH29" s="13"/>
+      <c r="CI29" s="13"/>
+      <c r="CJ29" s="13"/>
+      <c r="CK29" s="13"/>
+      <c r="CL29" s="13"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>56</v>
@@ -5482,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="U30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="12">
         <v>0</v>
@@ -5498,6 +5507,13 @@
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
       <c r="AM30" s="13"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="13"/>
@@ -5507,7 +5523,9 @@
       <c r="AS30" s="13"/>
       <c r="AT30" s="13"/>
       <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
+      <c r="AV30" s="12">
+        <v>0</v>
+      </c>
       <c r="AW30" s="12">
         <v>0</v>
       </c>
@@ -5530,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="BD30" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF30" s="12">
         <v>0</v>
@@ -5541,55 +5559,60 @@
       <c r="BG30" s="12">
         <v>0</v>
       </c>
-      <c r="BH30" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI30" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK30" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN30" s="13" cm="1">
-        <f t="array" ref="BN30:BN35">AI46:AI51</f>
-        <v>0.29727223000000003</v>
-      </c>
-      <c r="BO30" s="13" cm="1">
-        <f t="array" ref="BO30:BO35">AN46:AN51</f>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="BT30" s="13"/>
+      <c r="BI30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="13">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="13"/>
+      <c r="BY30" s="13"/>
+      <c r="BZ30" s="13"/>
       <c r="CA30" s="13"/>
       <c r="CB30" s="13"/>
       <c r="CC30" s="13"/>
       <c r="CD30" s="13"/>
       <c r="CE30" s="13"/>
-      <c r="CF30" s="13"/>
-      <c r="CG30" s="13"/>
-      <c r="CH30" s="13"/>
-      <c r="CI30" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ30" s="13"/>
-      <c r="CK30" s="13"/>
-      <c r="CL30" s="13"/>
-      <c r="CM30" s="13"/>
-      <c r="CN30" s="13"/>
+      <c r="CG30" s="13" cm="1">
+        <f t="array" ref="CG30:CL31">TRANSPOSE(_xlfn.ANCHORARRAY(AX52)-BF38:BG43)</f>
+        <v>0.4</v>
+      </c>
+      <c r="CH30" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="CI30" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="CJ30" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="CK30" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="CL30" s="13">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>56</v>
@@ -5632,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="V31" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -5661,7 +5684,9 @@
       <c r="AS31" s="13"/>
       <c r="AT31" s="13"/>
       <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
+      <c r="AV31" s="12">
+        <v>0</v>
+      </c>
       <c r="AW31" s="12">
         <v>0</v>
       </c>
@@ -5687,118 +5712,77 @@
         <v>0</v>
       </c>
       <c r="BE31" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="12">
         <v>0</v>
       </c>
-      <c r="BH31" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI31" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK31" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL31" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN31">
-        <v>-0.6</v>
-      </c>
-      <c r="BO31" s="13">
-        <v>-0.8</v>
-      </c>
-      <c r="BT31" s="13"/>
-      <c r="CA31" s="13"/>
-      <c r="CB31" s="13"/>
-      <c r="CC31" s="13"/>
-      <c r="CD31" s="13"/>
-      <c r="CE31" s="13"/>
-      <c r="CF31" s="13"/>
-      <c r="CG31" s="13"/>
-      <c r="CI31" s="13" cm="1">
-        <f t="array" ref="CI31:CN32">TRANSPOSE(_xlfn.ANCHORARRAY(AY53)-BH39:BI44)</f>
-        <v>0.69727223000000005</v>
+      <c r="BI31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL31">
+        <v>0.4</v>
+      </c>
+      <c r="BM31" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="56"/>
+      <c r="CA31" s="56"/>
+      <c r="CB31" s="56"/>
+      <c r="CC31" s="56"/>
+      <c r="CD31" s="56"/>
+      <c r="CG31" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="CH31" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="CI31" s="13">
+        <v>0.99</v>
       </c>
       <c r="CJ31" s="13">
-        <v>9.7272230000000071E-2</v>
+        <v>0.99</v>
       </c>
       <c r="CK31" s="13">
-        <v>0.69727223000000005</v>
+        <v>0.99</v>
       </c>
       <c r="CL31" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="CM31" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="CN31" s="13">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-      <c r="K32" s="12">
-        <v>0</v>
-      </c>
-      <c r="L32" s="12">
-        <v>0</v>
-      </c>
-      <c r="M32" s="12">
-        <v>0</v>
-      </c>
-      <c r="N32" s="12">
-        <v>0</v>
-      </c>
-      <c r="O32" s="12">
-        <v>0</v>
-      </c>
-      <c r="P32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="12">
-        <v>0</v>
-      </c>
-      <c r="R32" s="12">
-        <v>0</v>
-      </c>
-      <c r="S32" s="12">
-        <v>0</v>
-      </c>
-      <c r="T32" s="12">
-        <v>0</v>
-      </c>
-      <c r="U32" s="12">
-        <v>0</v>
-      </c>
-      <c r="V32" s="12">
-        <v>0</v>
-      </c>
-      <c r="W32" s="12">
-        <v>1</v>
-      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
@@ -5824,82 +5808,41 @@
       <c r="AT32" s="13"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="13"/>
-      <c r="AW32" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="12">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BA32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BD32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BE32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BF32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BG32" s="12">
-        <v>1</v>
-      </c>
-      <c r="BH32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI32" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK32" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL32" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>0.6</v>
-      </c>
-      <c r="BO32" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="CB32" s="56"/>
-      <c r="CC32" s="56"/>
-      <c r="CD32" s="56"/>
-      <c r="CE32" s="56"/>
-      <c r="CF32" s="56"/>
-      <c r="CI32" s="13">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="CJ32" s="13">
-        <v>0.14500000000000002</v>
-      </c>
-      <c r="CK32" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="CL32" s="13">
-        <v>0.23049999999999993</v>
-      </c>
-      <c r="CM32" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="CN32" s="13">
-        <v>0.99</v>
-      </c>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="13"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="13"/>
+      <c r="BD32" s="13"/>
+      <c r="BE32" s="13"/>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BT32" s="13"/>
+      <c r="BU32" s="13"/>
+      <c r="BV32" s="13"/>
+      <c r="BW32" s="13"/>
+      <c r="BX32" s="13"/>
+      <c r="BZ32" s="39"/>
+      <c r="CA32" s="39"/>
+      <c r="CB32" s="39"/>
+      <c r="CC32" s="39"/>
+      <c r="CD32" s="39"/>
+      <c r="CG32" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="CH32" s="13"/>
+      <c r="CI32" s="13"/>
+      <c r="CJ32" s="13"/>
+      <c r="CK32" s="13"/>
+      <c r="CL32" s="13"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5952,46 +5895,55 @@
       <c r="AX33" s="13"/>
       <c r="AY33" s="13"/>
       <c r="AZ33" s="13"/>
+      <c r="BA33" s="13"/>
       <c r="BB33" s="13"/>
       <c r="BC33" s="13"/>
       <c r="BD33" s="13"/>
       <c r="BE33" s="13"/>
-      <c r="BF33" s="13"/>
-      <c r="BG33" s="13"/>
-      <c r="BN33">
-        <v>0.10272777</v>
-      </c>
-      <c r="BO33">
-        <v>-0.8</v>
-      </c>
-      <c r="BV33" s="13"/>
-      <c r="BW33" s="13"/>
-      <c r="BX33" s="13"/>
-      <c r="BY33" s="13"/>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
       <c r="BZ33" s="13"/>
-      <c r="CB33" s="39"/>
-      <c r="CC33" s="39"/>
-      <c r="CD33" s="39"/>
-      <c r="CE33" s="39"/>
-      <c r="CF33" s="39"/>
-      <c r="CI33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ33" s="13"/>
-      <c r="CK33" s="13"/>
-      <c r="CL33" s="13"/>
-      <c r="CM33" s="13"/>
-      <c r="CN33" s="13"/>
+      <c r="CA33" s="13"/>
+      <c r="CB33" s="13"/>
+      <c r="CC33" s="13"/>
+      <c r="CD33" s="13"/>
+      <c r="CG33" s="13" cm="1">
+        <f t="array" ref="CG33:CL34">TRANSPOSE(_xlfn.ANCHORARRAY(BF38)-_xlfn.ANCHORARRAY(AV52))</f>
+        <v>0.4</v>
+      </c>
+      <c r="CH33" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="CI33" s="13">
+        <v>-2.7755575615628914E-17</v>
+      </c>
+      <c r="CJ33" s="13">
+        <v>-2.7755575615628914E-17</v>
+      </c>
+      <c r="CK33" s="13">
+        <v>-2.7755575615628914E-17</v>
+      </c>
+      <c r="CL33" s="13">
+        <v>-2.7755575615628914E-17</v>
+      </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -6007,29 +5959,60 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="13"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13"/>
-      <c r="AS34" s="13"/>
-      <c r="AT34" s="13"/>
+      <c r="AE34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AH34" s="14">
+        <v>-0.05</v>
+      </c>
+      <c r="AI34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="14">
+        <v>0.3</v>
+      </c>
       <c r="AU34" s="13"/>
       <c r="AV34" s="13"/>
       <c r="AW34" s="13"/>
@@ -6041,40 +6024,37 @@
       <c r="BC34" s="13"/>
       <c r="BD34" s="13"/>
       <c r="BE34" s="13"/>
-      <c r="BF34" s="13"/>
-      <c r="BG34" s="13"/>
-      <c r="BN34">
-        <v>0</v>
-      </c>
-      <c r="BO34">
-        <v>0.72304999999999997</v>
-      </c>
-      <c r="CB34" s="13"/>
-      <c r="CC34" s="13"/>
-      <c r="CD34" s="13"/>
-      <c r="CE34" s="13"/>
-      <c r="CF34" s="13"/>
-      <c r="CI34" s="13" cm="1">
-        <f t="array" ref="CI34:CN35">TRANSPOSE(_xlfn.ANCHORARRAY(BH39)-_xlfn.ANCHORARRAY(AW53))</f>
-        <v>0.10272776999999997</v>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="57"/>
+      <c r="CA34" s="57"/>
+      <c r="CB34" s="57"/>
+      <c r="CC34" s="57"/>
+      <c r="CD34" s="57"/>
+      <c r="CG34" s="13">
+        <v>0</v>
+      </c>
+      <c r="CH34" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI34" s="13">
+        <v>0</v>
       </c>
       <c r="CJ34" s="13">
-        <v>0.70272776999999997</v>
+        <v>0</v>
       </c>
       <c r="CK34" s="13">
-        <v>0.10272776999999997</v>
+        <v>0</v>
       </c>
       <c r="CL34" s="13">
-        <v>-2.7755575615628914E-17</v>
-      </c>
-      <c r="CM34" s="13">
-        <v>-2.7755575615628914E-17</v>
-      </c>
-      <c r="CN34" s="13">
-        <v>-2.7755575615628914E-17</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6082,10 +6062,10 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="13"/>
@@ -6102,106 +6082,56 @@
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AH35" s="14">
-        <v>-0.05</v>
-      </c>
-      <c r="AI35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="AV35" s="13"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-      <c r="BA35" s="13"/>
-      <c r="BB35" s="13"/>
-      <c r="BC35" s="13"/>
-      <c r="BD35" s="13"/>
-      <c r="BE35" s="13"/>
-      <c r="BF35" s="13"/>
-      <c r="BG35" s="13"/>
-      <c r="BN35">
-        <v>0</v>
-      </c>
-      <c r="BO35">
-        <v>-3.2805000000000001E-2</v>
-      </c>
-      <c r="CB35" s="57"/>
-      <c r="CC35" s="57"/>
-      <c r="CD35" s="57"/>
-      <c r="CE35" s="57"/>
-      <c r="CF35" s="57"/>
-      <c r="CI35" s="13">
-        <v>9.4999999999999973E-2</v>
-      </c>
-      <c r="CJ35" s="13">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="CK35" s="13">
-        <v>0</v>
-      </c>
-      <c r="CL35" s="13">
-        <v>0.75950000000000006</v>
-      </c>
-      <c r="CM35" s="13">
-        <v>0</v>
-      </c>
-      <c r="CN35" s="13">
-        <v>0</v>
-      </c>
+      <c r="AU35" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV35" s="16">
+        <v>1000</v>
+      </c>
+      <c r="AW35" s="16">
+        <v>100</v>
+      </c>
+      <c r="AX35" s="16">
+        <v>2000</v>
+      </c>
+      <c r="AY35" s="16">
+        <v>200</v>
+      </c>
+      <c r="AZ35" s="16">
+        <v>500</v>
+      </c>
+      <c r="BA35" s="16">
+        <v>1000</v>
+      </c>
+      <c r="BB35" s="16">
+        <v>500</v>
+      </c>
+      <c r="BC35" s="16">
+        <v>1000</v>
+      </c>
+      <c r="BD35" s="16">
+        <v>500</v>
+      </c>
+      <c r="BE35" s="16">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="16">
+        <v>2000</v>
+      </c>
+      <c r="BG35" s="16">
+        <v>200</v>
+      </c>
+      <c r="BZ35" s="58"/>
+      <c r="CG35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="CH35" s="13"/>
+      <c r="CI35" s="13"/>
+      <c r="CJ35" s="13"/>
+      <c r="CK35" s="13"/>
+      <c r="CL35" s="13"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6209,10 +6139,10 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="13"/>
@@ -6229,71 +6159,77 @@
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
-      <c r="AV36" s="13" t="s">
-        <v>93</v>
+      <c r="AU36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV36" s="16">
+        <v>3</v>
       </c>
       <c r="AW36" s="16">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AX36" s="16">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="AY36" s="16">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="16">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="16">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="16">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="16">
-        <v>1000</v>
+        <v>9999</v>
       </c>
       <c r="BF36" s="16">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="BG36" s="16">
-        <v>0</v>
-      </c>
-      <c r="BH36" s="16">
-        <v>2000</v>
-      </c>
-      <c r="BI36" s="16">
-        <v>200</v>
-      </c>
-      <c r="CB36" s="58"/>
-      <c r="CI36" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ36" s="13"/>
-      <c r="CK36" s="13"/>
-      <c r="CL36" s="13"/>
-      <c r="CM36" s="13"/>
-      <c r="CN36" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="BY36" s="13"/>
+      <c r="BZ36" s="13"/>
+      <c r="CF36" s="13"/>
+      <c r="CG36" s="13" cm="1">
+        <f t="array" ref="CG36:CL36">TRANSPOSE(BB52:BB57-AI45:AI50)</f>
+        <v>0.6</v>
+      </c>
+      <c r="CH36" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="CI36" s="13">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="CJ36" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="CK36" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="CL36" s="13">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="3"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -6309,74 +6245,62 @@
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AU37" s="13"/>
       <c r="AV37" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AW37" s="16">
-        <v>3</v>
-      </c>
-      <c r="AX37" s="16">
-        <v>6</v>
-      </c>
-      <c r="AY37" s="16">
-        <v>7</v>
-      </c>
-      <c r="AZ37" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA37" s="16">
-        <v>1</v>
-      </c>
-      <c r="BB37" s="16">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD37" s="16">
-        <v>0</v>
-      </c>
-      <c r="BE37" s="16">
-        <v>0</v>
-      </c>
-      <c r="BF37" s="16">
-        <v>0</v>
-      </c>
-      <c r="BG37" s="16">
-        <v>9999</v>
-      </c>
-      <c r="BH37" s="16">
-        <v>1</v>
-      </c>
-      <c r="BI37" s="16">
-        <v>1</v>
-      </c>
-      <c r="CA37" s="13"/>
-      <c r="CB37" s="13"/>
-      <c r="CH37" s="13"/>
-      <c r="CI37" s="13" cm="1">
-        <f t="array" ref="CI37:CN37">TRANSPOSE(BC53:BC58-AI46:AI51)</f>
-        <v>0.30272776999999995</v>
+      <c r="AW37" s="13"/>
+      <c r="AX37" s="13"/>
+      <c r="AY37" s="13"/>
+      <c r="AZ37" s="13"/>
+      <c r="BA37" s="13"/>
+      <c r="BB37" s="13"/>
+      <c r="BC37" s="13"/>
+      <c r="BD37" s="13"/>
+      <c r="BF37" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG37" s="27"/>
+      <c r="BH37" s="13"/>
+      <c r="BI37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="CF37" s="13"/>
+      <c r="CG37" s="13" cm="1">
+        <f t="array" ref="CG37:CL37">TRANSPOSE(BC52:BC57-AN45:AN50)</f>
+        <v>0.8</v>
+      </c>
+      <c r="CH37" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="CI37" s="13">
+        <v>0.8</v>
       </c>
       <c r="CJ37" s="13">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="CK37" s="13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CL37" s="13">
-        <v>0.49727222999999998</v>
-      </c>
-      <c r="CM37" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="CN37" s="13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+    <row r="38" spans="1:90" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -6406,54 +6330,81 @@
       <c r="AC38" s="13"/>
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
-      <c r="AV38" s="13"/>
-      <c r="AW38" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
-      <c r="AZ38" s="13"/>
-      <c r="BA38" s="13"/>
-      <c r="BB38" s="13"/>
-      <c r="BC38" s="13"/>
-      <c r="BD38" s="13"/>
-      <c r="BE38" s="13"/>
-      <c r="BF38" s="13"/>
-      <c r="BH38" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI38" s="27"/>
-      <c r="BJ38" s="13"/>
-      <c r="BK38" s="11" t="s">
-        <v>99</v>
+      <c r="AU38" s="13"/>
+      <c r="AV38" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AW38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AY38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ38" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="14">
+        <v>1</v>
+      </c>
+      <c r="BB38" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC38" s="14">
+        <v>1</v>
+      </c>
+      <c r="BD38" s="14">
+        <v>1</v>
+      </c>
+      <c r="BE38" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF38" s="46" cm="1">
+        <f t="array" ref="BF38:BG43">_xlfn.ANCHORARRAY(AZ52)*BI53:BJ58-MMULT(BI38:BN43,BL29:BM34)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BG38" s="46">
+        <v>0</v>
+      </c>
+      <c r="BH38" s="13"/>
+      <c r="BI38" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BN38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY38" s="13"/>
+      <c r="BZ38" s="13"/>
+      <c r="CF38" s="13"/>
+      <c r="CG38" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="CH38" s="13"/>
-      <c r="CI38" s="13" cm="1">
-        <f t="array" ref="CI38:CN38">TRANSPOSE(BD53:BD58-AN46:AN51)</f>
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="CJ38" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="CK38" s="13">
-        <v>0</v>
-      </c>
-      <c r="CL38" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="CM38" s="13">
-        <v>7.6950000000000074E-2</v>
-      </c>
-      <c r="CN38" s="13">
-        <v>0.83280500000000002</v>
-      </c>
+      <c r="CI38" s="13"/>
+      <c r="CJ38" s="13"/>
+      <c r="CK38" s="13"/>
+      <c r="CL38" s="13"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6484,9 +6435,12 @@
       <c r="AC39" s="13"/>
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
-      <c r="AV39" s="13"/>
-      <c r="AW39" s="16">
-        <v>0.1</v>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AW39" s="14">
+        <v>1</v>
       </c>
       <c r="AX39" s="14">
         <v>1</v>
@@ -6512,22 +6466,21 @@
       <c r="BE39" s="14">
         <v>1</v>
       </c>
-      <c r="BF39" s="14">
-        <v>1</v>
-      </c>
-      <c r="BG39" s="14">
-        <v>1</v>
-      </c>
-      <c r="BH39" s="46" cm="1">
-        <f t="array" ref="BH39:BI44">_xlfn.ANCHORARRAY(BA53)*BK54:BL59-MMULT(BK39:BP44,BN30:BO35)</f>
-        <v>0.20272776999999997</v>
-      </c>
-      <c r="BI39" s="46">
-        <v>9.4999999999999973E-2</v>
-      </c>
-      <c r="BJ39" s="13"/>
+      <c r="BF39" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="BG39" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH39" s="13"/>
+      <c r="BI39" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ39" s="12">
+        <v>1</v>
+      </c>
       <c r="BK39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL39" s="12">
         <v>0</v>
@@ -6538,30 +6491,40 @@
       <c r="BN39" s="12">
         <v>0</v>
       </c>
-      <c r="BO39" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP39" s="12">
-        <v>0</v>
-      </c>
-      <c r="CA39" s="13"/>
-      <c r="CB39" s="13"/>
-      <c r="CH39" s="13"/>
-      <c r="CI39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ39" s="13"/>
-      <c r="CK39" s="13"/>
-      <c r="CL39" s="13"/>
-      <c r="CM39" s="13"/>
-      <c r="CN39" s="13"/>
+      <c r="BT39" s="27"/>
+      <c r="BU39" s="13"/>
+      <c r="BV39" s="13"/>
+      <c r="BW39" s="13"/>
+      <c r="BX39" s="13"/>
+      <c r="BY39" s="13"/>
+      <c r="BZ39" s="13"/>
+      <c r="CF39" s="13"/>
+      <c r="CG39" s="13" cm="1">
+        <f t="array" ref="CG39:CL39">TRANSPOSE(-BD52:BD57+AI45:AI50)</f>
+        <v>0.6</v>
+      </c>
+      <c r="CH39" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="CI39" s="13">
+        <v>1</v>
+      </c>
+      <c r="CJ39" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="CK39" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="CL39" s="13">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -6592,9 +6555,12 @@
       <c r="AC40" s="13"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
-      <c r="AV40" s="13"/>
-      <c r="AW40" s="16">
-        <v>0.2</v>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AW40" s="14">
+        <v>1</v>
       </c>
       <c r="AX40" s="14">
         <v>1</v>
@@ -6620,24 +6586,24 @@
       <c r="BE40" s="14">
         <v>1</v>
       </c>
-      <c r="BF40" s="14">
-        <v>1</v>
-      </c>
-      <c r="BG40" s="14">
-        <v>1</v>
-      </c>
-      <c r="BH40" s="47">
-        <v>0.80272776999999995</v>
-      </c>
-      <c r="BI40" s="47">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="BJ40" s="13"/>
+      <c r="BF40" s="47">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="BG40" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="13"/>
+      <c r="BI40" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ40" s="12">
+        <v>1</v>
+      </c>
       <c r="BK40" s="12">
         <v>1</v>
       </c>
       <c r="BL40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM40" s="12">
         <v>0</v>
@@ -6645,46 +6611,40 @@
       <c r="BN40" s="12">
         <v>0</v>
       </c>
-      <c r="BO40" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP40" s="12">
-        <v>0</v>
-      </c>
-      <c r="BV40" s="27"/>
+      <c r="BT40" s="13"/>
+      <c r="BU40" s="13"/>
+      <c r="BV40" s="13"/>
       <c r="BW40" s="13"/>
       <c r="BX40" s="13"/>
       <c r="BY40" s="13"/>
       <c r="BZ40" s="13"/>
-      <c r="CA40" s="13"/>
-      <c r="CB40" s="13"/>
-      <c r="CH40" s="13"/>
-      <c r="CI40" s="13" cm="1">
-        <f t="array" ref="CI40:CN40">TRANSPOSE(-BE53:BE58+AI46:AI51)</f>
-        <v>0.89727223</v>
+      <c r="CF40" s="13"/>
+      <c r="CG40" s="13" cm="1">
+        <f t="array" ref="CG40:CL40">TRANSPOSE(-BE52:BE57+AN45:AN50)</f>
+        <v>0.8</v>
+      </c>
+      <c r="CH40" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="CI40" s="13">
+        <v>0.8</v>
       </c>
       <c r="CJ40" s="13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CK40" s="13">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="CL40" s="13">
-        <v>0.70272776999999997</v>
-      </c>
-      <c r="CM40" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="CN40" s="13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6715,9 +6675,12 @@
       <c r="AC41" s="13"/>
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
-      <c r="AV41" s="13"/>
-      <c r="AW41" s="16">
-        <v>0.1</v>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AW41" s="14">
+        <v>1</v>
       </c>
       <c r="AX41" s="14">
         <v>1</v>
@@ -6743,19 +6706,19 @@
       <c r="BE41" s="14">
         <v>1</v>
       </c>
-      <c r="BF41" s="14">
-        <v>1</v>
-      </c>
-      <c r="BG41" s="14">
-        <v>1</v>
-      </c>
-      <c r="BH41" s="47">
-        <v>0.20272776999999997</v>
-      </c>
-      <c r="BI41" s="47">
-        <v>0</v>
-      </c>
-      <c r="BJ41" s="13"/>
+      <c r="BF41" s="47">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="BG41" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH41" s="13"/>
+      <c r="BI41" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ41" s="12">
+        <v>1</v>
+      </c>
       <c r="BK41" s="12">
         <v>1</v>
       </c>
@@ -6763,51 +6726,33 @@
         <v>1</v>
       </c>
       <c r="BM41" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN41" s="12">
         <v>0</v>
       </c>
-      <c r="BO41" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP41" s="12">
-        <v>0</v>
-      </c>
+      <c r="BT41" s="13"/>
+      <c r="BU41" s="13"/>
       <c r="BV41" s="13"/>
       <c r="BW41" s="13"/>
       <c r="BX41" s="13"/>
-      <c r="BY41" s="13"/>
-      <c r="BZ41" s="13"/>
-      <c r="CA41" s="13"/>
-      <c r="CB41" s="13"/>
+      <c r="CE41" s="13"/>
+      <c r="CF41" s="13"/>
+      <c r="CG41" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="CH41" s="13"/>
-      <c r="CI41" s="13" cm="1">
-        <f t="array" ref="CI41:CN41">TRANSPOSE(-BF53:BF58+AN46:AN51)</f>
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="CJ41" s="13">
-        <v>0</v>
-      </c>
-      <c r="CK41" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="CL41" s="13">
-        <v>0</v>
-      </c>
-      <c r="CM41" s="13">
-        <v>1.52305</v>
-      </c>
-      <c r="CN41" s="13">
-        <v>0.76719500000000007</v>
-      </c>
+      <c r="CI41" s="13"/>
+      <c r="CJ41" s="13"/>
+      <c r="CK41" s="13"/>
+      <c r="CL41" s="13"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -6838,9 +6783,12 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
-      <c r="AV42" s="13"/>
-      <c r="AW42" s="16">
-        <v>0.2</v>
+      <c r="AU42" s="13"/>
+      <c r="AV42" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AW42" s="14">
+        <v>1</v>
       </c>
       <c r="AX42" s="14">
         <v>1</v>
@@ -6866,19 +6814,19 @@
       <c r="BE42" s="14">
         <v>1</v>
       </c>
-      <c r="BF42" s="14">
-        <v>1</v>
-      </c>
-      <c r="BG42" s="14">
-        <v>1</v>
-      </c>
-      <c r="BH42" s="47">
+      <c r="BF42" s="47">
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="BI42" s="47">
-        <v>0.75950000000000006</v>
-      </c>
-      <c r="BJ42" s="13"/>
+      <c r="BG42" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH42" s="13"/>
+      <c r="BI42" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ42" s="12">
+        <v>1</v>
+      </c>
       <c r="BK42" s="12">
         <v>1</v>
       </c>
@@ -6889,36 +6837,43 @@
         <v>1</v>
       </c>
       <c r="BN42" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO42" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP42" s="12">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BT42" s="13"/>
+      <c r="BU42" s="13"/>
       <c r="BV42" s="13"/>
       <c r="BW42" s="13"/>
       <c r="BX42" s="13"/>
-      <c r="BY42" s="13"/>
-      <c r="BZ42" s="13"/>
-      <c r="CG42" s="13"/>
-      <c r="CH42" s="13"/>
-      <c r="CI42" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="CJ42" s="13"/>
-      <c r="CK42" s="13"/>
-      <c r="CL42" s="13"/>
-      <c r="CM42" s="13"/>
-      <c r="CN42" s="13"/>
+      <c r="CE42" s="13"/>
+      <c r="CF42" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG42" s="13" cm="1">
+        <f t="array" ref="CG42:CL43">TRANSPOSE(MMULT(AF45:AT50,BI17:BJ31))</f>
+        <v>0.3</v>
+      </c>
+      <c r="CH42" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="CI42" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="CJ42" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="CK42" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="CL42" s="13">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6949,9 +6904,12 @@
       <c r="AC43" s="13"/>
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
-      <c r="AV43" s="13"/>
-      <c r="AW43" s="16">
-        <v>0.3</v>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AW43" s="14">
+        <v>1</v>
       </c>
       <c r="AX43" s="14">
         <v>1</v>
@@ -6977,19 +6935,19 @@
       <c r="BE43" s="14">
         <v>1</v>
       </c>
-      <c r="BF43" s="14">
-        <v>1</v>
-      </c>
-      <c r="BG43" s="14">
-        <v>1</v>
-      </c>
-      <c r="BH43" s="47">
+      <c r="BF43" s="47">
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="BI43" s="47">
-        <v>0</v>
-      </c>
-      <c r="BJ43" s="13"/>
+      <c r="BG43" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH43" s="13"/>
+      <c r="BI43" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ43" s="12">
+        <v>1</v>
+      </c>
       <c r="BK43" s="12">
         <v>1</v>
       </c>
@@ -7002,48 +6960,37 @@
       <c r="BN43" s="12">
         <v>1</v>
       </c>
-      <c r="BO43" s="12">
-        <v>1</v>
-      </c>
-      <c r="BP43" s="12">
-        <v>0</v>
-      </c>
+      <c r="BT43" s="13"/>
+      <c r="BU43" s="13"/>
       <c r="BV43" s="13"/>
       <c r="BW43" s="13"/>
       <c r="BX43" s="13"/>
-      <c r="BY43" s="13"/>
-      <c r="BZ43" s="13"/>
-      <c r="CG43" s="13"/>
-      <c r="CH43" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="CI43" s="13" cm="1">
-        <f t="array" ref="CI43:CN44">TRANSPOSE(MMULT(AF46:AU51,BK17:BL32))</f>
-        <v>0.59727222999999996</v>
+      <c r="CE43" s="13"/>
+      <c r="CF43" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG43" s="13">
+        <v>7</v>
+      </c>
+      <c r="CH43" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="CI43" s="13">
+        <v>8</v>
       </c>
       <c r="CJ43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK43" s="13">
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="CL43" s="13">
-        <v>0.70272776999999997</v>
-      </c>
-      <c r="CM43" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="CN43" s="13">
-        <v>0.6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="44" spans="1:90" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -7051,7 +6998,9 @@
       <c r="G44" s="3"/>
       <c r="H44" s="10"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="13"/>
+      <c r="J44" s="27" t="s">
+        <v>159</v>
+      </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -7073,96 +7022,75 @@
       <c r="AC44" s="13"/>
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
-      <c r="AV44" s="13"/>
-      <c r="AW44" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="AX44" s="14">
-        <v>1</v>
-      </c>
-      <c r="AY44" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ44" s="14">
-        <v>1</v>
-      </c>
-      <c r="BA44" s="14">
-        <v>1</v>
-      </c>
-      <c r="BB44" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC44" s="14">
-        <v>1</v>
-      </c>
-      <c r="BD44" s="14">
-        <v>1</v>
-      </c>
-      <c r="BE44" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF44" s="14">
-        <v>1</v>
-      </c>
-      <c r="BG44" s="14">
-        <v>1</v>
-      </c>
-      <c r="BH44" s="47">
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="BI44" s="47">
-        <v>0</v>
-      </c>
-      <c r="BJ44" s="13"/>
-      <c r="BK44" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL44" s="12">
-        <v>1</v>
-      </c>
-      <c r="BM44" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN44" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO44" s="12">
-        <v>1</v>
-      </c>
-      <c r="BP44" s="12">
-        <v>1</v>
-      </c>
+      <c r="AF44" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="13"/>
+      <c r="AQ44" s="13"/>
+      <c r="AR44" s="13"/>
+      <c r="AS44" s="13"/>
+      <c r="AT44" s="13"/>
+      <c r="AU44" s="13"/>
+      <c r="AV44" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX44" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB44" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC44" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD44" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE44" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF44" s="13"/>
+      <c r="BG44" s="13"/>
+      <c r="BH44" s="13"/>
+      <c r="BI44" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="BT44" s="13"/>
+      <c r="BU44" s="13"/>
       <c r="BV44" s="13"/>
       <c r="BW44" s="13"/>
       <c r="BX44" s="13"/>
-      <c r="BY44" s="13"/>
-      <c r="BZ44" s="13"/>
-      <c r="CG44" s="13"/>
-      <c r="CH44" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="CI44" s="13">
-        <v>6.4004050000000001</v>
-      </c>
-      <c r="CJ44" s="13">
-        <v>4.2392000000000003</v>
-      </c>
-      <c r="CK44" s="13">
-        <v>7.4007999999999994</v>
-      </c>
-      <c r="CL44" s="13">
-        <v>0.99919999999999987</v>
-      </c>
-      <c r="CM44" s="13">
-        <v>1.0007230499999999</v>
-      </c>
-      <c r="CN44" s="13">
-        <v>1.9999672000000002</v>
-      </c>
+      <c r="CE44" s="13"/>
+      <c r="CF44" s="13"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+    <row r="45" spans="1:90" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -7170,22 +7098,49 @@
       <c r="G45" s="3"/>
       <c r="H45" s="10"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
+      <c r="J45" s="45" cm="1">
+        <f t="array" ref="J45:W50">MMULT(AF45:AT50,J17:W31)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K45" s="28">
+        <v>12.800039999999999</v>
+      </c>
+      <c r="L45" s="28">
+        <v>0</v>
+      </c>
+      <c r="M45" s="28">
+        <v>0</v>
+      </c>
+      <c r="N45" s="28">
+        <v>6.2000799999999998</v>
+      </c>
+      <c r="O45" s="28">
+        <v>0</v>
+      </c>
+      <c r="P45" s="28">
+        <v>0.79991999999999996</v>
+      </c>
+      <c r="Q45" s="28">
+        <v>0</v>
+      </c>
+      <c r="R45" s="28">
+        <v>5</v>
+      </c>
+      <c r="S45" s="28">
+        <v>0</v>
+      </c>
+      <c r="T45" s="28">
+        <v>0</v>
+      </c>
+      <c r="U45" s="28">
+        <v>0</v>
+      </c>
+      <c r="V45" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="W45" s="29">
+        <v>1.6388</v>
+      </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
@@ -7194,75 +7149,121 @@
       <c r="AC45" s="13"/>
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
-      <c r="AF45" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-      <c r="AL45" s="13"/>
-      <c r="AM45" s="13"/>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="13"/>
-      <c r="AP45" s="13"/>
-      <c r="AQ45" s="13"/>
-      <c r="AR45" s="13"/>
-      <c r="AS45" s="13"/>
-      <c r="AT45" s="13"/>
+      <c r="AF45" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AG45" s="25">
+        <v>12.800039999999999</v>
+      </c>
+      <c r="AH45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="25">
+        <v>6.2000799999999998</v>
+      </c>
+      <c r="AK45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="25">
+        <v>0.79991999999999996</v>
+      </c>
+      <c r="AN45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="25">
+        <v>5</v>
+      </c>
+      <c r="AP45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AT45" s="25">
+        <v>1.6388</v>
+      </c>
       <c r="AU45" s="13"/>
-      <c r="AV45" s="13"/>
-      <c r="AW45" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY45" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ45" t="s">
-        <v>142</v>
-      </c>
-      <c r="BA45" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB45" t="s">
-        <v>142</v>
-      </c>
-      <c r="BC45" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD45" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE45" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF45" s="53" t="s">
-        <v>142</v>
-      </c>
+      <c r="AV45" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AW45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AY45" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="AZ45" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BA45" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="BC45" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="BD45" s="52">
+        <v>-0.6</v>
+      </c>
+      <c r="BE45" s="52">
+        <v>-0.8</v>
+      </c>
+      <c r="BF45" s="13"/>
+      <c r="BG45" s="13"/>
       <c r="BH45" s="13"/>
-      <c r="BI45" s="13"/>
-      <c r="BJ45" s="13"/>
-      <c r="BK45" s="11" t="s">
-        <v>135</v>
-      </c>
+      <c r="BI45" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BN45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BT45" s="13"/>
+      <c r="BU45" s="13"/>
       <c r="BV45" s="13"/>
       <c r="BW45" s="13"/>
       <c r="BX45" s="13"/>
       <c r="BY45" s="13"/>
       <c r="BZ45" s="13"/>
-      <c r="CG45" s="13"/>
-      <c r="CH45" s="13"/>
+      <c r="CA45" s="13"/>
+      <c r="CB45" s="13"/>
+      <c r="CC45" s="13"/>
+      <c r="CD45" s="13"/>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -7271,48 +7272,47 @@
       <c r="G46" s="3"/>
       <c r="H46" s="10"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="45" cm="1">
-        <f t="array" ref="J46:W51">MMULT(AF46:AU51,J17:W32)</f>
-        <v>0.3</v>
-      </c>
-      <c r="K46" s="28">
-        <v>12.400460000000001</v>
-      </c>
-      <c r="L46" s="28">
-        <v>0</v>
-      </c>
-      <c r="M46" s="28">
-        <v>0.29727223000000003</v>
-      </c>
-      <c r="N46" s="28">
-        <v>5.9954049999999999</v>
-      </c>
-      <c r="O46" s="28">
-        <v>0</v>
-      </c>
-      <c r="P46" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="28">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="R46" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="S46" s="28">
-        <v>0</v>
-      </c>
-      <c r="T46" s="28">
-        <v>0</v>
-      </c>
-      <c r="U46" s="28">
-        <v>0</v>
-      </c>
-      <c r="V46" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="W46" s="29">
-        <v>0.75</v>
+      <c r="J46" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="K46">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46" s="31">
+        <v>1.5</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -7323,19 +7323,19 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="25">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AG46" s="25">
-        <v>12.400460000000001</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AH46" s="25">
         <v>0</v>
       </c>
       <c r="AI46" s="25">
-        <v>0.29727223000000003</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="25">
-        <v>5.9954049999999999</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AK46" s="25">
         <v>0</v>
@@ -7347,13 +7347,13 @@
         <v>0</v>
       </c>
       <c r="AN46" s="25">
-        <v>0.40500000000000003</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP46" s="25">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="25">
         <v>0</v>
@@ -7362,50 +7362,53 @@
         <v>0</v>
       </c>
       <c r="AS46" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AW46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AY46" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="AZ46" s="14">
         <v>0.5</v>
       </c>
-      <c r="AU46" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX46" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY46" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="AZ46" s="14">
-        <v>0.99</v>
-      </c>
       <c r="BA46" s="14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BC46" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="BD46" s="14">
         <v>0.8</v>
       </c>
+      <c r="BD46" s="52">
+        <v>-0.6</v>
+      </c>
       <c r="BE46" s="52">
-        <v>-0.6</v>
-      </c>
-      <c r="BF46" s="52">
         <v>-0.8</v>
       </c>
+      <c r="BF46" s="13"/>
+      <c r="BG46" s="13"/>
       <c r="BH46" s="13"/>
-      <c r="BI46" s="13"/>
-      <c r="BJ46" s="13"/>
+      <c r="BI46" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ46" s="12">
+        <v>1</v>
+      </c>
       <c r="BK46" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="12">
         <v>0</v>
@@ -7416,12 +7419,8 @@
       <c r="BN46" s="12">
         <v>0</v>
       </c>
-      <c r="BO46" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP46" s="12">
-        <v>0</v>
-      </c>
+      <c r="BT46" s="13"/>
+      <c r="BU46" s="13"/>
       <c r="BV46" s="13"/>
       <c r="BW46" s="13"/>
       <c r="BX46" s="13"/>
@@ -7431,15 +7430,13 @@
       <c r="CB46" s="13"/>
       <c r="CC46" s="13"/>
       <c r="CD46" s="13"/>
-      <c r="CE46" s="13"/>
-      <c r="CF46" s="13"/>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -7449,31 +7446,31 @@
       <c r="H47" s="10"/>
       <c r="I47" s="3"/>
       <c r="J47" s="30">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K47">
-        <v>10.519539999999999</v>
+        <v>12.800039999999999</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
-        <v>5.0392000000000001</v>
+        <v>7</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -7485,10 +7482,10 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W47" s="31">
-        <v>1.5</v>
+        <v>4.1111110999999996</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -7499,92 +7496,95 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
       <c r="AF47" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AG47" s="25">
+        <v>12.800039999999999</v>
+      </c>
+      <c r="AH47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AJ47" s="25">
+        <v>7</v>
+      </c>
+      <c r="AK47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="25">
+        <v>5</v>
+      </c>
+      <c r="AP47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT47" s="25">
+        <v>4.1111110999999996</v>
+      </c>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AW47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AY47" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="AZ47" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BA47" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB47" s="14">
         <v>0.6</v>
       </c>
-      <c r="AG47" s="25">
-        <v>10.519539999999999</v>
-      </c>
-      <c r="AH47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="25">
+      <c r="BC47" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="BD47" s="52">
         <v>-0.6</v>
       </c>
-      <c r="AJ47" s="25">
-        <v>5.0392000000000001</v>
-      </c>
-      <c r="AK47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AM47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN47" s="25">
+      <c r="BE47" s="52">
         <v>-0.8</v>
       </c>
-      <c r="AO47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AP47" s="25">
-        <v>2.7</v>
-      </c>
-      <c r="AQ47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT47" s="25">
-        <v>1</v>
-      </c>
-      <c r="AU47" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="AV47" s="13"/>
-      <c r="AW47" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX47" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY47" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="AZ47" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="BA47" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BB47" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BC47" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="BD47" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="BE47" s="52">
-        <v>-0.6</v>
-      </c>
-      <c r="BF47" s="52">
-        <v>-0.8</v>
-      </c>
+      <c r="BF47" s="13"/>
+      <c r="BG47" s="13"/>
       <c r="BH47" s="13"/>
-      <c r="BI47" s="13"/>
-      <c r="BJ47" s="13"/>
+      <c r="BI47" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ47" s="12">
+        <v>1</v>
+      </c>
       <c r="BK47" s="12">
         <v>1</v>
       </c>
       <c r="BL47" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47" s="12">
         <v>0</v>
@@ -7592,30 +7592,19 @@
       <c r="BN47" s="12">
         <v>0</v>
       </c>
-      <c r="BO47" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP47" s="12">
-        <v>0</v>
-      </c>
-      <c r="BV47" s="13"/>
-      <c r="BW47" s="13"/>
-      <c r="BX47" s="13"/>
       <c r="BY47" s="13"/>
       <c r="BZ47" s="13"/>
       <c r="CA47" s="13"/>
       <c r="CB47" s="13"/>
       <c r="CC47" s="13"/>
       <c r="CD47" s="13"/>
-      <c r="CE47" s="13"/>
-      <c r="CF47" s="13"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -7625,31 +7614,31 @@
       <c r="H48" s="10"/>
       <c r="I48" s="3"/>
       <c r="J48" s="30">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K48">
-        <v>12.400460000000001</v>
+        <v>10.3</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>6.6007999999999996</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -7661,10 +7650,10 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W48" s="31">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -7675,87 +7664,90 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="25">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AG48" s="25">
-        <v>12.400460000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AH48" s="25">
         <v>0</v>
       </c>
       <c r="AI48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AT48" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AW48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AY48" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="AZ48" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BA48" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="14">
         <v>0.6</v>
       </c>
-      <c r="AJ48" s="25">
-        <v>6.6007999999999996</v>
-      </c>
-      <c r="AK48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AM48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN48" s="25">
+      <c r="BC48" s="14">
         <v>0.8</v>
       </c>
-      <c r="AO48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AP48" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="AQ48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT48" s="25">
-        <v>2</v>
-      </c>
-      <c r="AU48" s="25">
-        <v>3</v>
-      </c>
-      <c r="AV48" s="13"/>
-      <c r="AW48" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX48" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY48" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="AZ48" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="BA48" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BB48" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BC48" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="BD48" s="14">
-        <v>0.8</v>
+      <c r="BD48" s="52">
+        <v>-0.6</v>
       </c>
       <c r="BE48" s="52">
-        <v>-0.6</v>
-      </c>
-      <c r="BF48" s="52">
         <v>-0.8</v>
       </c>
+      <c r="BF48" s="13"/>
+      <c r="BG48" s="13"/>
       <c r="BH48" s="13"/>
-      <c r="BI48" s="13"/>
-      <c r="BJ48" s="13"/>
+      <c r="BI48" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ48" s="12">
+        <v>1</v>
+      </c>
       <c r="BK48" s="12">
         <v>1</v>
       </c>
@@ -7763,30 +7755,24 @@
         <v>1</v>
       </c>
       <c r="BM48" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN48" s="12">
         <v>0</v>
       </c>
-      <c r="BO48" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP48" s="12">
-        <v>0</v>
-      </c>
+      <c r="BY48" s="13"/>
+      <c r="BZ48" s="13"/>
       <c r="CA48" s="13"/>
       <c r="CB48" s="13"/>
       <c r="CC48" s="13"/>
       <c r="CD48" s="13"/>
-      <c r="CE48" s="13"/>
-      <c r="CF48" s="13"/>
     </row>
-    <row r="49" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -7796,28 +7782,28 @@
       <c r="H49" s="10"/>
       <c r="I49" s="3"/>
       <c r="J49" s="30">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K49">
-        <v>10.541963000000001</v>
+        <v>10</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.10272777</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1.7991999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -7832,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W49" s="31">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -7846,87 +7832,90 @@
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
       <c r="AF49" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="AG49" s="25">
+        <v>10</v>
+      </c>
+      <c r="AH49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="25">
+        <v>5</v>
+      </c>
+      <c r="AM49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="25">
+        <v>1</v>
+      </c>
+      <c r="AT49" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AU49" s="13"/>
+      <c r="AV49" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AW49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AY49" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="AZ49" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BA49" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="14">
         <v>0.6</v>
       </c>
-      <c r="AG49" s="25">
-        <v>10.541963000000001</v>
-      </c>
-      <c r="AH49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="25">
-        <v>0.10272777</v>
-      </c>
-      <c r="AJ49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="25">
-        <v>1.7991999999999999</v>
-      </c>
-      <c r="AL49" s="25">
-        <v>1.05</v>
-      </c>
-      <c r="AM49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN49" s="25">
+      <c r="BC49" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="BD49" s="52">
+        <v>-0.6</v>
+      </c>
+      <c r="BE49" s="52">
         <v>-0.8</v>
       </c>
-      <c r="AO49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AP49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT49" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="AU49" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="AV49" s="13"/>
-      <c r="AW49" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX49" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY49" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="AZ49" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="BA49" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BB49" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BC49" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="BD49" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="BE49" s="52">
-        <v>-0.6</v>
-      </c>
-      <c r="BF49" s="52">
-        <v>-0.8</v>
-      </c>
+      <c r="BF49" s="13"/>
+      <c r="BG49" s="13"/>
       <c r="BH49" s="13"/>
-      <c r="BI49" s="13"/>
-      <c r="BJ49" s="13"/>
+      <c r="BI49" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ49" s="12">
+        <v>1</v>
+      </c>
       <c r="BK49" s="12">
         <v>1</v>
       </c>
@@ -7937,27 +7926,24 @@
         <v>1</v>
       </c>
       <c r="BN49" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO49" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP49" s="12">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BY49" s="13"/>
+      <c r="BZ49" s="13"/>
       <c r="CA49" s="13"/>
       <c r="CB49" s="13"/>
       <c r="CC49" s="13"/>
       <c r="CD49" s="13"/>
       <c r="CE49" s="13"/>
       <c r="CF49" s="13"/>
+      <c r="CG49" s="40"/>
     </row>
-    <row r="50" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -7966,47 +7952,47 @@
       <c r="G50" s="3"/>
       <c r="H50" s="10"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="K50">
-        <v>9.8360692000000007</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0.27767304999999998</v>
-      </c>
-      <c r="O50">
-        <v>5.25</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0.72304999999999997</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50" s="31">
-        <v>1.5</v>
+      <c r="J50" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="K50" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>2</v>
+      </c>
+      <c r="O50" s="7">
+        <v>1</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+      <c r="S50" s="7">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>0</v>
+      </c>
+      <c r="U50" s="7">
+        <v>0</v>
+      </c>
+      <c r="V50" s="7">
+        <v>2</v>
+      </c>
+      <c r="W50" s="33">
+        <v>3</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -8017,87 +8003,90 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
       <c r="AF50" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AG50" s="25">
+        <v>10.7</v>
+      </c>
+      <c r="AH50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="25">
+        <v>2</v>
+      </c>
+      <c r="AL50" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT50" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU50" s="13"/>
+      <c r="AV50" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AW50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="14">
         <v>0.9</v>
       </c>
-      <c r="AG50" s="25">
-        <v>9.8360692000000007</v>
-      </c>
-      <c r="AH50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="25">
-        <v>0.27767304999999998</v>
-      </c>
-      <c r="AL50" s="25">
-        <v>5.25</v>
-      </c>
-      <c r="AM50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN50" s="25">
-        <v>0.72304999999999997</v>
-      </c>
-      <c r="AO50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="25">
-        <v>1</v>
-      </c>
-      <c r="AU50" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="AV50" s="13"/>
-      <c r="AW50" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX50" s="14">
-        <v>0</v>
-      </c>
       <c r="AY50" s="14">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AZ50" s="14">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="BA50" s="14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BC50" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="BD50" s="14">
         <v>0.8</v>
       </c>
+      <c r="BD50" s="52">
+        <v>-0.6</v>
+      </c>
       <c r="BE50" s="52">
-        <v>-0.6</v>
-      </c>
-      <c r="BF50" s="52">
         <v>-0.8</v>
       </c>
+      <c r="BF50" s="13"/>
+      <c r="BG50" s="13"/>
       <c r="BH50" s="13"/>
-      <c r="BI50" s="13"/>
-      <c r="BJ50" s="13"/>
+      <c r="BI50" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ50" s="12">
+        <v>1</v>
+      </c>
       <c r="BK50" s="12">
         <v>1</v>
       </c>
@@ -8110,385 +8099,256 @@
       <c r="BN50" s="12">
         <v>1</v>
       </c>
-      <c r="BO50" s="12">
-        <v>1</v>
-      </c>
-      <c r="BP50" s="12">
-        <v>0</v>
-      </c>
+      <c r="BY50" s="13"/>
+      <c r="BZ50" s="13"/>
       <c r="CA50" s="13"/>
       <c r="CB50" s="13"/>
       <c r="CC50" s="13"/>
       <c r="CD50" s="13"/>
       <c r="CE50" s="13"/>
       <c r="CF50" s="13"/>
-      <c r="CG50" s="13"/>
-      <c r="CH50" s="13"/>
-      <c r="CI50" s="40"/>
+      <c r="CG50" s="11"/>
     </row>
-    <row r="51" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="AV51" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX51" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB51" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD51" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE51" s="27"/>
+      <c r="CG51" s="40"/>
+    </row>
+    <row r="52" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ52" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="37" cm="1">
+        <f t="array" ref="AV52:AW57">AV45:AW50*$BF$75:$BG$75</f>
+        <v>0.1</v>
+      </c>
+      <c r="AW52" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="37" cm="1">
+        <f t="array" ref="AX52:AY57">AX45:AY50*$BF$75:$BG$75</f>
+        <v>0.9</v>
+      </c>
+      <c r="AY52" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="AZ52" s="37" cm="1">
+        <f t="array" ref="AZ52:BA57">AZ45:BA50*$BF$75:$BG$75</f>
+        <v>0.5</v>
+      </c>
+      <c r="BA52" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="37" cm="1">
+        <f t="array" ref="BB52:BC57">BB45:BC50*$BF$75:$BG$75</f>
+        <v>0.6</v>
+      </c>
+      <c r="BC52" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BD52" s="37" cm="1">
+        <f t="array" ref="BD52:BE57">BD45:BE50*$BF$75:$BG$75</f>
+        <v>-0.6</v>
+      </c>
+      <c r="BE52" s="37">
+        <v>-0.8</v>
+      </c>
+      <c r="BI52" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK52" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="CG52" s="11"/>
+    </row>
+    <row r="53" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ53" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AW53" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="AY53" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="AZ53" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="BA53" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="BC53" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BD53" s="37">
+        <v>-0.6</v>
+      </c>
+      <c r="BE53" s="37">
+        <v>-0.8</v>
+      </c>
+      <c r="BI53" s="49">
+        <v>1</v>
+      </c>
+      <c r="BJ53" s="49">
+        <v>1</v>
+      </c>
+      <c r="BK53" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="CG53" s="40"/>
+    </row>
+    <row r="54" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ54" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AW54" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="AY54" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="AZ54" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="BA54" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="BC54" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BD54" s="37">
+        <v>-0.6</v>
+      </c>
+      <c r="BE54" s="37">
+        <v>-0.8</v>
+      </c>
+      <c r="BI54" s="49">
+        <v>1</v>
+      </c>
+      <c r="BJ54" s="50">
+        <f>BJ53*$BK$53</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="32">
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="14">
+        <v>1</v>
+      </c>
+      <c r="AV55" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AW55" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="AY55" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="AZ55" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="BA55" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="37">
         <v>0.6</v>
       </c>
-      <c r="K51" s="7">
-        <v>10.738109</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>2.0327722000000001</v>
-      </c>
-      <c r="O51" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="P51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>-3.2805000000000001E-2</v>
-      </c>
-      <c r="R51" s="7">
-        <v>0</v>
-      </c>
-      <c r="S51" s="7">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7">
-        <v>0</v>
-      </c>
-      <c r="U51" s="7">
-        <v>0</v>
-      </c>
-      <c r="V51" s="7">
-        <v>2</v>
-      </c>
-      <c r="W51" s="33">
-        <v>3</v>
-      </c>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="AG51" s="25">
-        <v>10.738109</v>
-      </c>
-      <c r="AH51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="25">
-        <v>2.0327722000000001</v>
-      </c>
-      <c r="AL51" s="25">
-        <v>1.05</v>
-      </c>
-      <c r="AM51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="25">
-        <v>-3.2805000000000001E-2</v>
-      </c>
-      <c r="AO51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AP51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT51" s="25">
-        <v>2</v>
-      </c>
-      <c r="AU51" s="25">
-        <v>3</v>
-      </c>
-      <c r="AV51" s="13"/>
-      <c r="AW51" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX51" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY51" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="AZ51" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="BA51" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BB51" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BC51" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="BD51" s="14">
+      <c r="BC55" s="37">
         <v>0.8</v>
       </c>
-      <c r="BE51" s="52">
+      <c r="BD55" s="37">
         <v>-0.6</v>
       </c>
-      <c r="BF51" s="52">
+      <c r="BE55" s="37">
         <v>-0.8</v>
       </c>
-      <c r="BH51" s="13"/>
-      <c r="BI51" s="13"/>
-      <c r="BJ51" s="13"/>
-      <c r="BK51" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL51" s="12">
-        <v>1</v>
-      </c>
-      <c r="BM51" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN51" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO51" s="12">
-        <v>1</v>
-      </c>
-      <c r="BP51" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA51" s="13"/>
-      <c r="CB51" s="13"/>
-      <c r="CC51" s="13"/>
-      <c r="CD51" s="13"/>
-      <c r="CE51" s="13"/>
-      <c r="CF51" s="13"/>
-      <c r="CG51" s="13"/>
-      <c r="CH51" s="13"/>
-      <c r="CI51" s="11"/>
+      <c r="BI55" s="49">
+        <v>1</v>
+      </c>
+      <c r="BJ55" s="50">
+        <f>BJ54*$BK$53</f>
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="52" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="AW52" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY52" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA52" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC52" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE52" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF52" s="27"/>
-      <c r="CI52" s="40"/>
-    </row>
-    <row r="53" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ53" s="14">
-        <v>1</v>
-      </c>
-      <c r="AK53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW53" s="37" cm="1">
-        <f t="array" ref="AW53:AX58">AW46:AX51*$BH$37:$BI$37</f>
-        <v>0.1</v>
-      </c>
-      <c r="AX53" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY53" s="37" cm="1">
-        <f t="array" ref="AY53:AZ58">AY46:AZ51*$BH$37:$BI$37</f>
-        <v>0.9</v>
-      </c>
-      <c r="AZ53" s="38">
-        <v>0.99</v>
-      </c>
-      <c r="BA53" s="37" cm="1">
-        <f t="array" ref="BA53:BB58">BA46:BB51*$BH$37:$BI$37</f>
-        <v>0.5</v>
-      </c>
-      <c r="BB53" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="BC53" s="37" cm="1">
-        <f t="array" ref="BC53:BD58">BC46:BD51*$BH$37:$BI$37</f>
-        <v>0.6</v>
-      </c>
-      <c r="BD53" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="BE53" s="37" cm="1">
-        <f t="array" ref="BE53:BF58">BE46:BF51*$BH$37:$BI$37</f>
-        <v>-0.6</v>
-      </c>
-      <c r="BF53" s="37">
-        <v>-0.8</v>
-      </c>
-      <c r="BK53" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL53" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM53" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="CI53" s="11"/>
-    </row>
-    <row r="54" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ54" s="14">
-        <v>1</v>
-      </c>
-      <c r="AK54" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW54" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AX54" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY54" s="37">
-        <v>0.9</v>
-      </c>
-      <c r="AZ54" s="38">
-        <v>0.99</v>
-      </c>
-      <c r="BA54" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="BB54" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="BC54" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="BD54" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="BE54" s="37">
-        <v>-0.6</v>
-      </c>
-      <c r="BF54" s="37">
-        <v>-0.8</v>
-      </c>
-      <c r="BK54" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL54" s="49">
-        <v>1</v>
-      </c>
-      <c r="BM54" s="48">
-        <v>0.9</v>
-      </c>
-      <c r="CI54" s="40"/>
-    </row>
-    <row r="55" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ55" s="14">
-        <v>1</v>
-      </c>
-      <c r="AK55" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW55" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AX55" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY55" s="37">
-        <v>0.9</v>
-      </c>
-      <c r="AZ55" s="38">
-        <v>0.99</v>
-      </c>
-      <c r="BA55" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="BB55" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="BC55" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="BD55" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="BE55" s="37">
-        <v>-0.6</v>
-      </c>
-      <c r="BF55" s="37">
-        <v>-0.8</v>
-      </c>
-      <c r="BK55" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL55" s="50">
-        <f>BL54*$BM$54</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ56" s="14">
         <v>0</v>
@@ -8496,207 +8356,246 @@
       <c r="AK56" s="14">
         <v>1</v>
       </c>
+      <c r="AV56" s="37">
+        <v>0.1</v>
+      </c>
       <c r="AW56" s="37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY56" s="37">
         <v>0.9</v>
       </c>
-      <c r="AZ56" s="38">
+      <c r="AY56" s="38">
         <v>0.99</v>
       </c>
-      <c r="BA56" s="37">
+      <c r="AZ56" s="37">
         <v>0.5</v>
       </c>
+      <c r="BA56" s="38">
+        <v>0</v>
+      </c>
       <c r="BB56" s="37">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BC56" s="37">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="BD56" s="37">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="BE56" s="37">
-        <v>-0.6</v>
-      </c>
-      <c r="BF56" s="37">
         <v>-0.8</v>
       </c>
-      <c r="BK56" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL56" s="50">
-        <f>BL55*$BM$54</f>
-        <v>0.81</v>
+      <c r="BI56" s="49">
+        <v>1</v>
+      </c>
+      <c r="BJ56" s="50">
+        <f>BJ55*$BK$53</f>
+        <v>0.72900000000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AJ57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="14">
+        <v>1</v>
+      </c>
+      <c r="AV57" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="AW57" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX57" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="AY57" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="AZ57" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="BA57" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB57" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="BC57" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="BD57" s="38">
+        <v>-0.6</v>
+      </c>
+      <c r="BE57" s="38">
+        <v>-0.8</v>
+      </c>
+      <c r="BF57" s="13"/>
+      <c r="BG57" s="13"/>
+      <c r="BI57" s="49">
+        <v>1</v>
+      </c>
+      <c r="BJ57" s="50">
+        <f>BJ56*$BK$53</f>
+        <v>0.65610000000000013</v>
+      </c>
+      <c r="BY57" s="13"/>
+      <c r="BZ57" s="13"/>
+      <c r="CA57" s="13"/>
+      <c r="CB57" s="13"/>
+      <c r="CC57" s="13"/>
+      <c r="CD57" s="13"/>
+      <c r="CE57" s="13"/>
+      <c r="CF57" s="13"/>
+      <c r="CG57" s="13"/>
+    </row>
+    <row r="58" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="AF58" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV58" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI58" s="49">
+        <v>1</v>
+      </c>
+      <c r="BJ58" s="50">
+        <f>BJ57*$BK$53</f>
+        <v>0.59049000000000018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AJ59" s="59" cm="1">
+        <f t="array" ref="AJ59:AK64">AJ52:AK57*AJ73:AK73</f>
+        <v>7</v>
+      </c>
+      <c r="AK59" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="37" cm="1">
+        <f t="array" ref="AV59:BE64">MMULT(AV38:BE43,_xlfn.MUNIT(10)*AV75:BE75)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AW59" s="38">
+        <v>12.800039999999999</v>
+      </c>
+      <c r="AX59" s="38">
+        <v>7</v>
+      </c>
+      <c r="AY59" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ59" s="38">
         <v>5</v>
       </c>
-      <c r="AJ57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="14">
-        <v>1</v>
-      </c>
-      <c r="AW57" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AX57" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY57" s="37">
-        <v>0.9</v>
-      </c>
-      <c r="AZ57" s="38">
-        <v>0.99</v>
-      </c>
-      <c r="BA57" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="BB57" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="BC57" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="BD57" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="BE57" s="37">
-        <v>-0.6</v>
-      </c>
-      <c r="BF57" s="37">
-        <v>-0.8</v>
-      </c>
-      <c r="BK57" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL57" s="50">
-        <f>BL56*$BM$54</f>
-        <v>0.72900000000000009</v>
-      </c>
+      <c r="BA59" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD59" s="38">
+        <v>2</v>
+      </c>
+      <c r="BE59" s="38">
+        <v>9999</v>
+      </c>
+      <c r="BI59" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ59" s="28"/>
+      <c r="BK59" s="28"/>
+      <c r="BL59" s="28"/>
+      <c r="BY59" s="13"/>
+      <c r="BZ59" s="13"/>
+      <c r="CA59" s="13"/>
+      <c r="CB59" s="13"/>
+      <c r="CC59" s="13"/>
+      <c r="CD59" s="13"/>
+      <c r="CE59" s="13"/>
+      <c r="CF59" s="13"/>
+      <c r="CG59" s="13"/>
     </row>
-    <row r="58" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-      <c r="AJ58" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="14">
-        <v>1</v>
-      </c>
-      <c r="AW58" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="AX58" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="AZ58" s="38">
-        <v>0.99</v>
-      </c>
-      <c r="BA58" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="BB58" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="BC58" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="BD58" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="BE58" s="38">
-        <v>-0.6</v>
-      </c>
-      <c r="BF58" s="38">
-        <v>-0.8</v>
-      </c>
-      <c r="BH58" s="13"/>
-      <c r="BI58" s="13"/>
-      <c r="BK58" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL58" s="50">
-        <f>BL57*$BM$54</f>
-        <v>0.65610000000000013</v>
-      </c>
-      <c r="CA58" s="13"/>
-      <c r="CB58" s="13"/>
-      <c r="CC58" s="13"/>
-      <c r="CD58" s="13"/>
-      <c r="CE58" s="13"/>
-      <c r="CF58" s="13"/>
-      <c r="CG58" s="13"/>
-      <c r="CH58" s="13"/>
-      <c r="CI58" s="13"/>
-    </row>
-    <row r="59" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="AF59" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW59" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="BK59" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL59" s="50">
-        <f>BL58*$BM$54</f>
-        <v>0.59049000000000018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -8705,47 +8604,26 @@
       <c r="G60" s="3"/>
       <c r="H60" s="10"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="13"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
-      <c r="AJ60" s="59" cm="1">
-        <f t="array" ref="AJ60:AK65">AJ53:AK58*AJ76:AK76</f>
-        <v>0</v>
+      <c r="AJ60" s="38">
+        <v>7</v>
       </c>
       <c r="AK60" s="38">
         <v>0</v>
       </c>
-      <c r="AW60" s="37" cm="1">
-        <f t="array" ref="AW60:BG65">MMULT(AW39:BG44,_xlfn.MUNIT(11)*AW76:BG76)</f>
-        <v>0</v>
+      <c r="AV60" s="38">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AW60" s="38">
+        <v>12.800039999999999</v>
       </c>
       <c r="AX60" s="38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY60" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ60" s="38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA60" s="38">
         <v>0</v>
@@ -8757,23 +8635,19 @@
         <v>0</v>
       </c>
       <c r="BD60" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE60" s="38">
-        <v>0</v>
-      </c>
-      <c r="BF60" s="38">
-        <v>0</v>
-      </c>
-      <c r="BG60" s="38">
-        <v>0</v>
-      </c>
-      <c r="BK60" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="BL60" s="28"/>
-      <c r="BM60" s="28"/>
-      <c r="BN60" s="28"/>
+        <v>9999</v>
+      </c>
+      <c r="BI60" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY60" s="13"/>
+      <c r="BZ60" s="13"/>
       <c r="CA60" s="13"/>
       <c r="CB60" s="13"/>
       <c r="CC60" s="13"/>
@@ -8781,15 +8655,13 @@
       <c r="CE60" s="13"/>
       <c r="CF60" s="13"/>
       <c r="CG60" s="13"/>
-      <c r="CH60" s="13"/>
-      <c r="CI60" s="13"/>
     </row>
-    <row r="61" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -8799,22 +8671,25 @@
       <c r="H61" s="10"/>
       <c r="I61" s="3"/>
       <c r="AJ61" s="38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK61" s="38">
         <v>0</v>
       </c>
+      <c r="AV61" s="38">
+        <v>0.30000000000000004</v>
+      </c>
       <c r="AW61" s="38">
-        <v>0</v>
+        <v>12.800039999999999</v>
       </c>
       <c r="AX61" s="38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY61" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ61" s="38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA61" s="38">
         <v>0</v>
@@ -8826,23 +8701,28 @@
         <v>0</v>
       </c>
       <c r="BD61" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE61" s="38">
-        <v>0</v>
-      </c>
-      <c r="BF61" s="38">
-        <v>0</v>
-      </c>
-      <c r="BG61" s="38">
-        <v>0</v>
-      </c>
-      <c r="BK61" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM61" t="s">
-        <v>146</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="BI61" s="30" cm="1">
+        <f t="array" ref="BI61:BJ66">_xlfn.ANCHORARRAY(AZ52)*BI53:BJ58</f>
+        <v>0.5</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61" cm="1">
+        <f t="array" ref="BK61:BL66">-MMULT(BI38:BN43,BL29:BM34)</f>
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
+      </c>
+      <c r="BS61" s="11"/>
+      <c r="BY61" s="13"/>
+      <c r="BZ61" s="13"/>
       <c r="CA61" s="13"/>
       <c r="CB61" s="13"/>
       <c r="CC61" s="13"/>
@@ -8850,15 +8730,13 @@
       <c r="CE61" s="13"/>
       <c r="CF61" s="13"/>
       <c r="CG61" s="13"/>
-      <c r="CH61" s="13"/>
-      <c r="CI61" s="13"/>
     </row>
-    <row r="62" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -8871,19 +8749,22 @@
         <v>0</v>
       </c>
       <c r="AK62" s="38">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AV62" s="38">
+        <v>0.60000000000000009</v>
       </c>
       <c r="AW62" s="38">
-        <v>0</v>
+        <v>12.800039999999999</v>
       </c>
       <c r="AX62" s="38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY62" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ62" s="38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA62" s="38">
         <v>0</v>
@@ -8895,32 +8776,25 @@
         <v>0</v>
       </c>
       <c r="BD62" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE62" s="38">
-        <v>0</v>
-      </c>
-      <c r="BF62" s="38">
-        <v>0</v>
-      </c>
-      <c r="BG62" s="38">
-        <v>0</v>
-      </c>
-      <c r="BK62" s="30" cm="1">
-        <f t="array" ref="BK62:BL67">_xlfn.ANCHORARRAY(BA53)*BK54:BL59</f>
+        <v>9999</v>
+      </c>
+      <c r="BI62" s="30">
         <v>0.5</v>
       </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
       <c r="BL62">
-        <v>0.5</v>
-      </c>
-      <c r="BM62" cm="1">
-        <f t="array" ref="BM62:BN67">-MMULT(BK39:BP44,BN30:BO35)</f>
-        <v>-0.29727223000000003</v>
-      </c>
-      <c r="BN62">
-        <v>-0.40500000000000003</v>
-      </c>
-      <c r="BU62" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="BY62" s="13"/>
+      <c r="BZ62" s="13"/>
       <c r="CA62" s="13"/>
       <c r="CB62" s="13"/>
       <c r="CC62" s="13"/>
@@ -8928,15 +8802,13 @@
       <c r="CE62" s="13"/>
       <c r="CF62" s="13"/>
       <c r="CG62" s="13"/>
-      <c r="CH62" s="13"/>
-      <c r="CI62" s="13"/>
     </row>
-    <row r="63" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -8949,19 +8821,22 @@
         <v>0</v>
       </c>
       <c r="AK63" s="38">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AV63" s="38">
+        <v>0.89999999999999991</v>
       </c>
       <c r="AW63" s="38">
-        <v>0</v>
+        <v>12.800039999999999</v>
       </c>
       <c r="AX63" s="38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY63" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ63" s="38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA63" s="38">
         <v>0</v>
@@ -8973,29 +8848,31 @@
         <v>0</v>
       </c>
       <c r="BD63" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE63" s="38">
-        <v>0</v>
-      </c>
-      <c r="BF63" s="38">
-        <v>0</v>
-      </c>
-      <c r="BG63" s="38">
-        <v>0</v>
-      </c>
-      <c r="BK63" s="30">
+        <v>9999</v>
+      </c>
+      <c r="BI63" s="30">
         <v>0.5</v>
       </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>-0.4</v>
+      </c>
       <c r="BL63">
-        <v>0.45</v>
-      </c>
-      <c r="BM63">
-        <v>0.30272776999999995</v>
-      </c>
-      <c r="BN63">
-        <v>0.39500000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BM63" s="13"/>
+      <c r="BN63" s="13"/>
+      <c r="BO63" s="13"/>
+      <c r="BP63" s="13"/>
+      <c r="BR63" s="13"/>
+      <c r="BS63" s="13"/>
+      <c r="BY63" s="13"/>
+      <c r="BZ63" s="13"/>
       <c r="CA63" s="13"/>
       <c r="CB63" s="13"/>
       <c r="CC63" s="13"/>
@@ -9003,15 +8880,13 @@
       <c r="CE63" s="13"/>
       <c r="CF63" s="13"/>
       <c r="CG63" s="13"/>
-      <c r="CH63" s="13"/>
-      <c r="CI63" s="13"/>
     </row>
-    <row r="64" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -9024,19 +8899,22 @@
         <v>0</v>
       </c>
       <c r="AK64" s="38">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AV64" s="38">
+        <v>0.60000000000000009</v>
       </c>
       <c r="AW64" s="38">
-        <v>0</v>
+        <v>12.800039999999999</v>
       </c>
       <c r="AX64" s="38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY64" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ64" s="38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA64" s="38">
         <v>0</v>
@@ -9048,35 +8926,31 @@
         <v>0</v>
       </c>
       <c r="BD64" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE64" s="38">
-        <v>0</v>
-      </c>
-      <c r="BF64" s="38">
-        <v>0</v>
-      </c>
-      <c r="BG64" s="38">
-        <v>0</v>
-      </c>
-      <c r="BK64" s="30">
+        <v>9999</v>
+      </c>
+      <c r="BI64" s="30">
         <v>0.5</v>
       </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>-0.4</v>
+      </c>
       <c r="BL64">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="BM64">
-        <v>-0.29727223000000003</v>
-      </c>
-      <c r="BN64">
-        <v>-0.40500000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BM64" s="13"/>
+      <c r="BN64" s="13"/>
       <c r="BO64" s="13"/>
       <c r="BP64" s="13"/>
-      <c r="BQ64" s="13"/>
       <c r="BR64" s="13"/>
-      <c r="BT64" s="13"/>
-      <c r="BU64" s="13"/>
+      <c r="BS64" s="13"/>
+      <c r="BY64" s="13"/>
+      <c r="BZ64" s="13"/>
       <c r="CA64" s="13"/>
       <c r="CB64" s="13"/>
       <c r="CC64" s="13"/>
@@ -9084,80 +8958,49 @@
       <c r="CE64" s="13"/>
       <c r="CF64" s="13"/>
       <c r="CG64" s="13"/>
-      <c r="CH64" s="13"/>
-      <c r="CI64" s="13"/>
     </row>
-    <row r="65" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="3"/>
+    <row r="65" spans="1:85" x14ac:dyDescent="0.2">
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="10"/>
       <c r="I65" s="3"/>
-      <c r="AJ65" s="38">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="38">
-        <v>0</v>
-      </c>
-      <c r="AW65" s="38">
-        <v>0</v>
-      </c>
-      <c r="AX65" s="38">
-        <v>0</v>
-      </c>
-      <c r="AY65" s="38">
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="38">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="38">
-        <v>0</v>
-      </c>
-      <c r="BB65" s="38">
-        <v>0</v>
-      </c>
-      <c r="BC65" s="38">
-        <v>0</v>
-      </c>
-      <c r="BD65" s="38">
-        <v>0</v>
-      </c>
-      <c r="BE65" s="38">
-        <v>0</v>
-      </c>
-      <c r="BF65" s="38">
-        <v>0</v>
-      </c>
-      <c r="BG65" s="38">
-        <v>0</v>
-      </c>
-      <c r="BK65" s="30">
+      <c r="AF65" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="13"/>
+      <c r="AI65" s="13"/>
+      <c r="AJ65" s="13"/>
+      <c r="AK65" s="13"/>
+      <c r="AL65" s="13"/>
+      <c r="AM65" s="13"/>
+      <c r="AN65" s="13"/>
+      <c r="AO65" s="13"/>
+      <c r="AP65" s="13"/>
+      <c r="AQ65" s="13"/>
+      <c r="AR65" s="13"/>
+      <c r="AS65" s="13"/>
+      <c r="AT65" s="13"/>
+      <c r="AV65" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI65" s="30">
         <v>0.5</v>
       </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>-0.4</v>
+      </c>
       <c r="BL65">
-        <v>0.36450000000000005</v>
-      </c>
-      <c r="BM65">
-        <v>-0.4</v>
-      </c>
-      <c r="BN65">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="BO65" s="13"/>
-      <c r="BP65" s="13"/>
-      <c r="BQ65" s="13"/>
-      <c r="BR65" s="13"/>
-      <c r="BT65" s="13"/>
-      <c r="BU65" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="BS65" s="13"/>
+      <c r="BY65" s="13"/>
+      <c r="BZ65" s="13"/>
       <c r="CA65" s="13"/>
       <c r="CB65" s="13"/>
       <c r="CC65" s="13"/>
@@ -9165,50 +9008,123 @@
       <c r="CE65" s="13"/>
       <c r="CF65" s="13"/>
       <c r="CG65" s="13"/>
-      <c r="CH65" s="13"/>
-      <c r="CI65" s="13"/>
     </row>
-    <row r="66" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="10"/>
       <c r="I66" s="3"/>
-      <c r="AF66" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG66" s="13"/>
-      <c r="AH66" s="13"/>
-      <c r="AI66" s="13"/>
-      <c r="AJ66" s="13"/>
-      <c r="AK66" s="13"/>
-      <c r="AL66" s="13"/>
-      <c r="AM66" s="13"/>
-      <c r="AN66" s="13"/>
-      <c r="AO66" s="13"/>
-      <c r="AP66" s="13"/>
-      <c r="AQ66" s="13"/>
-      <c r="AR66" s="13"/>
-      <c r="AS66" s="13"/>
-      <c r="AT66" s="13"/>
-      <c r="AU66" s="13"/>
-      <c r="AW66" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK66" s="30">
+      <c r="AF66" s="37" cm="1">
+        <f t="array" ref="AF66:AT71">MMULT(AF45:AT50,_xlfn.MUNIT(15)*AF34:AT34)</f>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="37">
+        <v>1.2800039999999999</v>
+      </c>
+      <c r="AH66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="37">
+        <v>0.49163999999999997</v>
+      </c>
+      <c r="AV66" s="45" cm="1">
+        <f t="array" ref="AV66:BG71">MMULT(AF45:AT50,AV17:BG31)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AW66" s="28">
+        <v>12.800039999999999</v>
+      </c>
+      <c r="AX66" s="28">
+        <v>6.2000799999999998</v>
+      </c>
+      <c r="AY66" s="28">
+        <v>0.79991999999999996</v>
+      </c>
+      <c r="AZ66" s="28">
+        <v>5</v>
+      </c>
+      <c r="BA66" s="28">
+        <v>0</v>
+      </c>
+      <c r="BB66" s="28">
+        <v>0</v>
+      </c>
+      <c r="BC66" s="28">
+        <v>0</v>
+      </c>
+      <c r="BD66" s="28">
         <v>0.5</v>
       </c>
+      <c r="BE66" s="28">
+        <v>1.6388</v>
+      </c>
+      <c r="BF66" s="28">
+        <v>0</v>
+      </c>
+      <c r="BG66" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI66" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>-0.4</v>
+      </c>
       <c r="BL66">
-        <v>0.32805000000000006</v>
-      </c>
-      <c r="BM66">
-        <v>-0.4</v>
-      </c>
-      <c r="BN66">
-        <v>-0.32804999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BT66" s="13"/>
       <c r="BU66" s="13"/>
+      <c r="BV66" s="13"/>
+      <c r="BW66" s="13"/>
+      <c r="BX66" s="13"/>
+      <c r="BY66" s="13"/>
+      <c r="BZ66" s="13"/>
       <c r="CA66" s="13"/>
       <c r="CB66" s="13"/>
       <c r="CC66" s="13"/>
@@ -9216,15 +9132,13 @@
       <c r="CE66" s="13"/>
       <c r="CF66" s="13"/>
       <c r="CG66" s="13"/>
-      <c r="CH66" s="13"/>
-      <c r="CI66" s="13"/>
     </row>
-    <row r="67" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -9233,12 +9147,11 @@
       <c r="G67" s="3"/>
       <c r="H67" s="10"/>
       <c r="I67" s="3"/>
-      <c r="AF67" s="37" cm="1">
-        <f t="array" ref="AF67:AU72">MMULT(AF46:AU51,_xlfn.MUNIT(16)*AF35:AU35)</f>
+      <c r="AF67" s="37">
         <v>0</v>
       </c>
       <c r="AG67" s="37">
-        <v>1.2400460000000002</v>
+        <v>0.97</v>
       </c>
       <c r="AH67" s="37">
         <v>0</v>
@@ -9277,63 +9190,46 @@
         <v>0</v>
       </c>
       <c r="AT67" s="37">
-        <v>0</v>
-      </c>
-      <c r="AU67" s="37">
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="AW67" s="45" cm="1">
-        <f t="array" ref="AW67:BI72">MMULT(AF46:AU51,AW17:BI32)</f>
-        <v>0.3</v>
-      </c>
-      <c r="AX67" s="28">
-        <v>12.400460000000001</v>
-      </c>
-      <c r="AY67" s="28">
-        <v>5.9954049999999999</v>
-      </c>
-      <c r="AZ67" s="28">
-        <v>0</v>
-      </c>
-      <c r="BA67" s="28">
-        <v>0</v>
-      </c>
-      <c r="BB67" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="BC67" s="28">
-        <v>0</v>
-      </c>
-      <c r="BD67" s="28">
-        <v>0</v>
-      </c>
-      <c r="BE67" s="28">
-        <v>0</v>
-      </c>
-      <c r="BF67" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="BG67" s="28">
-        <v>0.75</v>
-      </c>
-      <c r="BH67" s="28">
-        <v>0.29727223000000003</v>
-      </c>
-      <c r="BI67" s="29">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="BK67" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="BL67">
-        <v>0.29524500000000009</v>
-      </c>
-      <c r="BM67">
-        <v>-0.4</v>
-      </c>
-      <c r="BN67">
-        <v>-0.29524499999999998</v>
-      </c>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AV67" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="AW67">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AX67">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>3</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67">
+        <v>1</v>
+      </c>
+      <c r="BE67">
+        <v>1.5</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT67" s="13"/>
+      <c r="BU67" s="13"/>
       <c r="BV67" s="13"/>
       <c r="BW67" s="13"/>
       <c r="BX67" s="13"/>
@@ -9346,15 +9242,13 @@
       <c r="CE67" s="13"/>
       <c r="CF67" s="13"/>
       <c r="CG67" s="13"/>
-      <c r="CH67" s="13"/>
-      <c r="CI67" s="13"/>
     </row>
-    <row r="68" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -9367,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="AG68" s="37">
-        <v>1.0519540000000001</v>
+        <v>1.2800039999999999</v>
       </c>
       <c r="AH68" s="37">
         <v>0</v>
@@ -9406,50 +9300,46 @@
         <v>0</v>
       </c>
       <c r="AT68" s="37">
-        <v>0</v>
-      </c>
-      <c r="AU68" s="37">
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="AW68" s="30">
-        <v>0.6</v>
+        <v>1.2333333299999998</v>
+      </c>
+      <c r="AV68" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AW68">
+        <v>12.800039999999999</v>
       </c>
       <c r="AX68">
-        <v>10.519539999999999</v>
+        <v>7</v>
       </c>
       <c r="AY68">
-        <v>5.0392000000000001</v>
+        <v>1</v>
       </c>
       <c r="AZ68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA68">
         <v>0</v>
       </c>
       <c r="BB68">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BC68">
         <v>0</v>
       </c>
       <c r="BD68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE68">
-        <v>0</v>
+        <v>4.1111110999999996</v>
       </c>
       <c r="BF68">
-        <v>1</v>
-      </c>
-      <c r="BG68">
-        <v>1.5</v>
-      </c>
-      <c r="BH68">
-        <v>-0.6</v>
-      </c>
-      <c r="BI68" s="31">
-        <v>-0.8</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="BG68" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT68" s="13"/>
+      <c r="BU68" s="13"/>
       <c r="BV68" s="13"/>
       <c r="BW68" s="13"/>
       <c r="BX68" s="13"/>
@@ -9462,15 +9352,13 @@
       <c r="CE68" s="13"/>
       <c r="CF68" s="13"/>
       <c r="CG68" s="13"/>
-      <c r="CH68" s="13"/>
-      <c r="CI68" s="13"/>
     </row>
-    <row r="69" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -9479,11 +9367,33 @@
       <c r="G69" s="3"/>
       <c r="H69" s="10"/>
       <c r="I69" s="3"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="13"/>
       <c r="AF69" s="37">
         <v>0</v>
       </c>
       <c r="AG69" s="37">
-        <v>1.2400460000000002</v>
+        <v>1.03</v>
       </c>
       <c r="AH69" s="37">
         <v>0</v>
@@ -9522,19 +9432,19 @@
         <v>0</v>
       </c>
       <c r="AT69" s="37">
-        <v>0</v>
-      </c>
-      <c r="AU69" s="37">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="AW69" s="30">
-        <v>0.3</v>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="AV69" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="AW69">
+        <v>10.3</v>
       </c>
       <c r="AX69">
-        <v>12.400460000000001</v>
+        <v>2</v>
       </c>
       <c r="AY69">
-        <v>6.6007999999999996</v>
+        <v>0</v>
       </c>
       <c r="AZ69">
         <v>0</v>
@@ -9543,29 +9453,25 @@
         <v>0</v>
       </c>
       <c r="BB69">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BC69">
         <v>0</v>
       </c>
       <c r="BD69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BE69">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BF69">
-        <v>2</v>
-      </c>
-      <c r="BG69">
-        <v>3</v>
-      </c>
-      <c r="BH69">
-        <v>0.6</v>
-      </c>
-      <c r="BI69" s="31">
-        <v>0.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BG69" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT69" s="13"/>
+      <c r="BU69" s="13"/>
       <c r="BV69" s="13"/>
       <c r="BW69" s="13"/>
       <c r="BX69" s="13"/>
@@ -9578,15 +9484,13 @@
       <c r="CE69" s="13"/>
       <c r="CF69" s="13"/>
       <c r="CG69" s="13"/>
-      <c r="CH69" s="13"/>
-      <c r="CI69" s="13"/>
     </row>
-    <row r="70" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -9595,33 +9499,11 @@
       <c r="G70" s="3"/>
       <c r="H70" s="10"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
-      <c r="AC70" s="13"/>
-      <c r="AD70" s="13"/>
-      <c r="AE70" s="13"/>
       <c r="AF70" s="37">
         <v>0</v>
       </c>
       <c r="AG70" s="37">
-        <v>1.0541963000000001</v>
+        <v>1</v>
       </c>
       <c r="AH70" s="37">
         <v>0</v>
@@ -9660,19 +9542,19 @@
         <v>0</v>
       </c>
       <c r="AT70" s="37">
-        <v>0</v>
-      </c>
-      <c r="AU70" s="37">
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="AW70" s="30">
-        <v>0.6</v>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AV70" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="AW70">
+        <v>10</v>
       </c>
       <c r="AX70">
-        <v>10.541963000000001</v>
+        <v>6</v>
       </c>
       <c r="AY70">
-        <v>2.8491999999999997</v>
+        <v>0</v>
       </c>
       <c r="AZ70">
         <v>0</v>
@@ -9687,44 +9569,24 @@
         <v>0</v>
       </c>
       <c r="BD70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE70">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BF70">
-        <v>0.5</v>
-      </c>
-      <c r="BG70">
-        <v>0.75</v>
-      </c>
-      <c r="BH70">
-        <v>0.10272777</v>
-      </c>
-      <c r="BI70" s="31">
-        <v>-0.8</v>
-      </c>
-      <c r="BV70" s="13"/>
-      <c r="BW70" s="13"/>
-      <c r="BX70" s="13"/>
-      <c r="BY70" s="13"/>
-      <c r="BZ70" s="13"/>
-      <c r="CA70" s="13"/>
-      <c r="CB70" s="13"/>
-      <c r="CC70" s="13"/>
-      <c r="CD70" s="13"/>
-      <c r="CE70" s="13"/>
-      <c r="CF70" s="13"/>
-      <c r="CG70" s="13"/>
-      <c r="CH70" s="13"/>
-      <c r="CI70" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="BG70" s="31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -9737,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="AG71" s="37">
-        <v>0.98360692000000016</v>
+        <v>1.07</v>
       </c>
       <c r="AH71" s="37">
         <v>0</v>
@@ -9776,212 +9638,194 @@
         <v>0</v>
       </c>
       <c r="AT71" s="37">
-        <v>0</v>
-      </c>
-      <c r="AU71" s="37">
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="AW71" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="AX71">
-        <v>9.8360692000000007</v>
-      </c>
-      <c r="AY71">
-        <v>5.5276730499999998</v>
-      </c>
-      <c r="AZ71">
-        <v>0</v>
-      </c>
-      <c r="BA71">
-        <v>0</v>
-      </c>
-      <c r="BB71">
-        <v>0</v>
-      </c>
-      <c r="BC71">
-        <v>0</v>
-      </c>
-      <c r="BD71">
-        <v>0</v>
-      </c>
-      <c r="BE71">
-        <v>0</v>
-      </c>
-      <c r="BF71">
-        <v>1</v>
-      </c>
-      <c r="BG71">
-        <v>1.5</v>
-      </c>
-      <c r="BH71">
-        <v>0</v>
-      </c>
-      <c r="BI71" s="31">
-        <v>0.72304999999999997</v>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AV71" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="AW71" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="AX71" s="7">
+        <v>3</v>
+      </c>
+      <c r="AY71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ71" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA71" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB71" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC71" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD71" s="7">
+        <v>2</v>
+      </c>
+      <c r="BE71" s="7">
+        <v>3</v>
+      </c>
+      <c r="BF71" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG71" s="33">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="3"/>
+    <row r="72" spans="1:85" x14ac:dyDescent="0.2">
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="10"/>
       <c r="I72" s="3"/>
-      <c r="AF72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="37">
-        <v>1.0738109</v>
-      </c>
-      <c r="AH72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AK72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AL72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AM72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AO72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AP72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AQ72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AR72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AT72" s="37">
-        <v>0</v>
-      </c>
-      <c r="AU72" s="37">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="AW72" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="AX72" s="7">
-        <v>10.738109</v>
-      </c>
-      <c r="AY72" s="7">
-        <v>3.0827722</v>
-      </c>
-      <c r="AZ72" s="7">
-        <v>0</v>
-      </c>
-      <c r="BA72" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB72" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC72" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD72" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE72" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF72" s="7">
-        <v>2</v>
-      </c>
-      <c r="BG72" s="7">
-        <v>3</v>
-      </c>
-      <c r="BH72" s="7">
-        <v>0</v>
-      </c>
-      <c r="BI72" s="33">
-        <v>-3.2805000000000001E-2</v>
+      <c r="AF72" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV72" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="10"/>
       <c r="I73" s="3"/>
-      <c r="AW73" s="11" t="s">
-        <v>130</v>
+      <c r="AF73" s="38" cm="1">
+        <f t="array" ref="AF73:AT73">MMULT(_xlfn.ANCHORARRAY(AV75),TRANSPOSE(AV17:BG31))</f>
+        <v>3</v>
+      </c>
+      <c r="AG73" s="38">
+        <v>12.800039999999999</v>
+      </c>
+      <c r="AH73" s="38">
+        <v>12.800039999999999</v>
+      </c>
+      <c r="AI73" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="38">
+        <v>7</v>
+      </c>
+      <c r="AK73" s="38">
+        <v>7</v>
+      </c>
+      <c r="AL73" s="38">
+        <v>7</v>
+      </c>
+      <c r="AM73" s="38">
+        <v>1</v>
+      </c>
+      <c r="AN73" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO73" s="38">
+        <v>5</v>
+      </c>
+      <c r="AP73" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="38">
+        <v>2</v>
+      </c>
+      <c r="AT73" s="38">
+        <v>9999</v>
+      </c>
+      <c r="AV73" s="41">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="41">
+        <v>6.8000400000000001</v>
+      </c>
+      <c r="AX73" s="41">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="41">
+        <v>1</v>
+      </c>
+      <c r="AZ73" s="41">
+        <v>5</v>
+      </c>
+      <c r="BA73" s="41">
+        <v>0</v>
+      </c>
+      <c r="BB73" s="41">
+        <v>0</v>
+      </c>
+      <c r="BC73" s="41">
+        <v>0</v>
+      </c>
+      <c r="BD73" s="41">
+        <v>2</v>
+      </c>
+      <c r="BE73" s="41">
+        <v>0</v>
+      </c>
+      <c r="BF73" s="41">
+        <v>0</v>
+      </c>
+      <c r="BG73" s="41">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="3"/>
-      <c r="AW74" s="41">
-        <v>0</v>
-      </c>
-      <c r="AX74" s="41">
-        <v>6.4004599999999998</v>
-      </c>
-      <c r="AY74" s="41">
-        <v>0</v>
-      </c>
-      <c r="AZ74" s="41">
-        <v>0</v>
-      </c>
-      <c r="BA74" s="41">
-        <v>0</v>
-      </c>
-      <c r="BB74" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="BC74" s="41">
-        <v>0</v>
-      </c>
-      <c r="BD74" s="41">
-        <v>0</v>
-      </c>
-      <c r="BE74" s="41">
-        <v>0</v>
-      </c>
-      <c r="BF74" s="41">
+    <row r="74" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="AV74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="AV75" s="38" cm="1">
+        <f t="array" ref="AV75:BG75">AV73:BG73+AV36:BG36</f>
+        <v>3</v>
+      </c>
+      <c r="AW75" s="38">
+        <v>12.800039999999999</v>
+      </c>
+      <c r="AX75" s="38">
+        <v>7</v>
+      </c>
+      <c r="AY75" s="38">
+        <v>1</v>
+      </c>
+      <c r="AZ75" s="38">
+        <v>5</v>
+      </c>
+      <c r="BA75" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB75" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC75" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD75" s="38">
         <v>2</v>
       </c>
-      <c r="BG74" s="41">
-        <v>0</v>
-      </c>
-      <c r="BH74" s="41">
-        <v>0</v>
-      </c>
-      <c r="BI74" s="41">
-        <v>0</v>
+      <c r="BE75" s="38">
+        <v>9999</v>
+      </c>
+      <c r="BF75" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG75" s="38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
